--- a/Task/2014-04-10大家电销售进RA/2015-04-01_大家电_历史销售_进RA.xlsx
+++ b/Task/2014-04-10大家电销售进RA/2015-04-01_大家电_历史销售_进RA.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="4">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,12 +27,16 @@
     <t>已导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>已导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +49,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -68,9 +79,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -375,15 +387,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A97"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -694,295 +707,3392 @@
       <c r="A39" s="1">
         <v>42063</v>
       </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>42062</v>
       </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>42061</v>
       </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>42060</v>
       </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42059</v>
       </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42058</v>
       </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>42057</v>
       </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>42056</v>
       </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>42055</v>
       </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>42054</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="1">
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
         <v>42053</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="1">
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
         <v>42052</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="1">
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
         <v>42051</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
         <v>42050</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="1">
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
         <v>42049</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="1">
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
         <v>42048</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="1">
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
         <v>42047</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="1">
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
         <v>42046</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="1">
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
         <v>42045</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="1">
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
         <v>42044</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="1">
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
         <v>42043</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="1">
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
         <v>42042</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="1">
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
         <v>42041</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="1">
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
         <v>42040</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="1">
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
         <v>42039</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="1">
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
         <v>42038</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="1">
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
         <v>42037</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="1">
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
         <v>42036</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="1">
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
         <v>42035</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="1">
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
         <v>42034</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="1">
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
         <v>42033</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="1">
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
         <v>42032</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="1">
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
         <v>42031</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="1">
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
         <v>42030</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="1">
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
         <v>42029</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="1">
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
         <v>42028</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="1">
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
         <v>42027</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="1">
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
         <v>42026</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="1">
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
         <v>42025</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="1">
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
         <v>42024</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="1">
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
         <v>42023</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="1">
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
         <v>42022</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81" s="1">
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="2">
         <v>42021</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" s="1">
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="2">
         <v>42020</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" s="1">
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
         <v>42019</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" s="1">
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="2">
         <v>42018</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A85" s="1">
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="2">
         <v>42017</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A86" s="1">
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="2">
         <v>42016</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A87" s="1">
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="2">
         <v>42015</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A88" s="1">
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="2">
         <v>42014</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A89" s="1">
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="2">
         <v>42013</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A90" s="1">
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="2">
         <v>42012</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A91" s="1">
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="2">
         <v>42011</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92" s="1">
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="2">
         <v>42010</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A93" s="1">
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="2">
         <v>42009</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A94" s="1">
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="2">
         <v>42008</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A95" s="1">
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="2">
         <v>42007</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A96" s="1">
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="2">
         <v>42006</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97" s="1">
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="2">
         <v>42005</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>42003</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>42002</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>42001</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="1">
+        <v>42000</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="1">
+        <v>41999</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>41998</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>41997</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="1">
+        <v>41996</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="1">
+        <v>41995</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" s="1">
+        <v>41994</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <v>41993</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
+        <v>41992</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <v>41991</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <v>41990</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="1">
+        <v>41989</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="1">
+        <v>41988</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" s="1">
+        <v>41987</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="1">
+        <v>41986</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
+        <v>41985</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
+        <v>41984</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="1">
+        <v>41983</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" s="1">
+        <v>41981</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" s="1">
+        <v>41980</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" s="1">
+        <v>41979</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" s="1">
+        <v>41978</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" s="1">
+        <v>41977</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" s="1">
+        <v>41976</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" s="1">
+        <v>41975</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" s="1">
+        <v>41974</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" s="2">
+        <v>41973</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" s="2">
+        <v>41972</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" s="2">
+        <v>41971</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" s="2">
+        <v>41970</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" s="2">
+        <v>41969</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" s="2">
+        <v>41968</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" s="2">
+        <v>41967</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" s="2">
+        <v>41966</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" s="2">
+        <v>41965</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" s="2">
+        <v>41964</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" s="2">
+        <v>41963</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" s="2">
+        <v>41962</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" s="2">
+        <v>41961</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" s="2">
+        <v>41960</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" s="2">
+        <v>41959</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" s="2">
+        <v>41958</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" s="2">
+        <v>41957</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" s="2">
+        <v>41956</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" s="2">
+        <v>41955</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" s="2">
+        <v>41954</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" s="2">
+        <v>41953</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150" s="2">
+        <v>41952</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" s="2">
+        <v>41951</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" s="2">
+        <v>41950</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" s="2">
+        <v>41949</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154" s="2">
+        <v>41948</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" s="2">
+        <v>41947</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156" s="2">
+        <v>41946</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157" s="2">
+        <v>41945</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A159" s="2">
+        <v>41943</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A160" s="2">
+        <v>41942</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161" s="2">
+        <v>41941</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A162" s="2">
+        <v>41940</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A163" s="2">
+        <v>41939</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A164" s="2">
+        <v>41938</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165" s="2">
+        <v>41937</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166" s="2">
+        <v>41936</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167" s="2">
+        <v>41935</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168" s="2">
+        <v>41934</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169" s="2">
+        <v>41933</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A170" s="2">
+        <v>41932</v>
+      </c>
+      <c r="B170" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A171" s="2">
+        <v>41931</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A172" s="2">
+        <v>41930</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A173" s="2">
+        <v>41929</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A174" s="2">
+        <v>41928</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A175" s="2">
+        <v>41927</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A176" s="2">
+        <v>41926</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A177" s="2">
+        <v>41925</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A178" s="2">
+        <v>41924</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A179" s="2">
+        <v>41923</v>
+      </c>
+      <c r="B179" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A180" s="2">
+        <v>41922</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A181" s="2">
+        <v>41921</v>
+      </c>
+      <c r="B181" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A182" s="2">
+        <v>41920</v>
+      </c>
+      <c r="B182" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A183" s="2">
+        <v>41919</v>
+      </c>
+      <c r="B183" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A184" s="2">
+        <v>41918</v>
+      </c>
+      <c r="B184" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A185" s="2">
+        <v>41917</v>
+      </c>
+      <c r="B185" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A186" s="2">
+        <v>41916</v>
+      </c>
+      <c r="B186" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A187" s="2">
+        <v>41915</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A188" s="2">
+        <v>41914</v>
+      </c>
+      <c r="B188" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A189" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A190" s="2">
+        <v>41912</v>
+      </c>
+      <c r="B190" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A191" s="2">
+        <v>41911</v>
+      </c>
+      <c r="B191" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A192" s="2">
+        <v>41910</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A193" s="2">
+        <v>41909</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A194" s="2">
+        <v>41908</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A195" s="2">
+        <v>41907</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A196" s="2">
+        <v>41906</v>
+      </c>
+      <c r="B196" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A197" s="2">
+        <v>41905</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A198" s="2">
+        <v>41904</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A199" s="2">
+        <v>41903</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A200" s="2">
+        <v>41902</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A201" s="2">
+        <v>41901</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A202" s="2">
+        <v>41900</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A203" s="2">
+        <v>41899</v>
+      </c>
+      <c r="B203" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A204" s="2">
+        <v>41898</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A205" s="2">
+        <v>41897</v>
+      </c>
+      <c r="B205" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A206" s="2">
+        <v>41896</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A207" s="2">
+        <v>41895</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A208" s="2">
+        <v>41894</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A209" s="2">
+        <v>41893</v>
+      </c>
+      <c r="B209" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A210" s="2">
+        <v>41892</v>
+      </c>
+      <c r="B210" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A211" s="2">
+        <v>41891</v>
+      </c>
+      <c r="B211" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A212" s="2">
+        <v>41890</v>
+      </c>
+      <c r="B212" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A213" s="2">
+        <v>41889</v>
+      </c>
+      <c r="B213" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A214" s="2">
+        <v>41888</v>
+      </c>
+      <c r="B214" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A215" s="2">
+        <v>41887</v>
+      </c>
+      <c r="B215" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A216" s="2">
+        <v>41886</v>
+      </c>
+      <c r="B216" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A217" s="2">
+        <v>41885</v>
+      </c>
+      <c r="B217" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A218" s="2">
+        <v>41884</v>
+      </c>
+      <c r="B218" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A219" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B219" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A220" s="2">
+        <v>41882</v>
+      </c>
+      <c r="B220" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A221" s="2">
+        <v>41881</v>
+      </c>
+      <c r="B221" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A222" s="2">
+        <v>41880</v>
+      </c>
+      <c r="B222" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A223" s="2">
+        <v>41879</v>
+      </c>
+      <c r="B223" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A224" s="2">
+        <v>41878</v>
+      </c>
+      <c r="B224" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A225" s="2">
+        <v>41877</v>
+      </c>
+      <c r="B225" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A226" s="2">
+        <v>41876</v>
+      </c>
+      <c r="B226" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A227" s="2">
+        <v>41875</v>
+      </c>
+      <c r="B227" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A228" s="2">
+        <v>41874</v>
+      </c>
+      <c r="B228" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A229" s="2">
+        <v>41873</v>
+      </c>
+      <c r="B229" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A230" s="2">
+        <v>41872</v>
+      </c>
+      <c r="B230" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A231" s="2">
+        <v>41871</v>
+      </c>
+      <c r="B231" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A232" s="2">
+        <v>41870</v>
+      </c>
+      <c r="B232" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A233" s="2">
+        <v>41869</v>
+      </c>
+      <c r="B233" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A234" s="2">
+        <v>41868</v>
+      </c>
+      <c r="B234" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A235" s="2">
+        <v>41867</v>
+      </c>
+      <c r="B235" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A236" s="2">
+        <v>41866</v>
+      </c>
+      <c r="B236" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A237" s="2">
+        <v>41865</v>
+      </c>
+      <c r="B237" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A238" s="2">
+        <v>41864</v>
+      </c>
+      <c r="B238" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A239" s="2">
+        <v>41863</v>
+      </c>
+      <c r="B239" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A240" s="2">
+        <v>41862</v>
+      </c>
+      <c r="B240" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A241" s="2">
+        <v>41861</v>
+      </c>
+      <c r="B241" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A242" s="2">
+        <v>41860</v>
+      </c>
+      <c r="B242" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A243" s="2">
+        <v>41859</v>
+      </c>
+      <c r="B243" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A244" s="2">
+        <v>41858</v>
+      </c>
+      <c r="B244" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A245" s="2">
+        <v>41857</v>
+      </c>
+      <c r="B245" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A246" s="2">
+        <v>41856</v>
+      </c>
+      <c r="B246" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A247" s="2">
+        <v>41855</v>
+      </c>
+      <c r="B247" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A248" s="2">
+        <v>41854</v>
+      </c>
+      <c r="B248" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A249" s="2">
+        <v>41853</v>
+      </c>
+      <c r="B249" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A250" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B250" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A251" s="2">
+        <v>41851</v>
+      </c>
+      <c r="B251" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A252" s="2">
+        <v>41850</v>
+      </c>
+      <c r="B252" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A253" s="2">
+        <v>41849</v>
+      </c>
+      <c r="B253" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A254" s="2">
+        <v>41848</v>
+      </c>
+      <c r="B254" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A255" s="2">
+        <v>41847</v>
+      </c>
+      <c r="B255" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A256" s="2">
+        <v>41846</v>
+      </c>
+      <c r="B256" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A257" s="2">
+        <v>41845</v>
+      </c>
+      <c r="B257" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A258" s="2">
+        <v>41844</v>
+      </c>
+      <c r="B258" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A259" s="2">
+        <v>41843</v>
+      </c>
+      <c r="B259" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A260" s="2">
+        <v>41842</v>
+      </c>
+      <c r="B260" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A261" s="2">
+        <v>41841</v>
+      </c>
+      <c r="B261" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A262" s="2">
+        <v>41840</v>
+      </c>
+      <c r="B262" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A263" s="2">
+        <v>41839</v>
+      </c>
+      <c r="B263" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A264" s="2">
+        <v>41838</v>
+      </c>
+      <c r="B264" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A265" s="2">
+        <v>41837</v>
+      </c>
+      <c r="B265" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A266" s="2">
+        <v>41836</v>
+      </c>
+      <c r="B266" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A267" s="2">
+        <v>41835</v>
+      </c>
+      <c r="B267" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A268" s="2">
+        <v>41834</v>
+      </c>
+      <c r="B268" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A269" s="2">
+        <v>41833</v>
+      </c>
+      <c r="B269" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A270" s="2">
+        <v>41832</v>
+      </c>
+      <c r="B270" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A271" s="2">
+        <v>41831</v>
+      </c>
+      <c r="B271" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A272" s="2">
+        <v>41830</v>
+      </c>
+      <c r="B272" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A273" s="2">
+        <v>41829</v>
+      </c>
+      <c r="B273" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A274" s="2">
+        <v>41828</v>
+      </c>
+      <c r="B274" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A275" s="2">
+        <v>41827</v>
+      </c>
+      <c r="B275" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A276" s="2">
+        <v>41826</v>
+      </c>
+      <c r="B276" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A277" s="2">
+        <v>41825</v>
+      </c>
+      <c r="B277" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A278" s="2">
+        <v>41824</v>
+      </c>
+      <c r="B278" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A279" s="2">
+        <v>41823</v>
+      </c>
+      <c r="B279" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A280" s="2">
+        <v>41822</v>
+      </c>
+      <c r="B280" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A281" s="2">
+        <v>41821</v>
+      </c>
+      <c r="B281" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A282" s="2">
+        <v>41820</v>
+      </c>
+      <c r="B282" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A283" s="2">
+        <v>41819</v>
+      </c>
+      <c r="B283" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A284" s="2">
+        <v>41818</v>
+      </c>
+      <c r="B284" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A285" s="2">
+        <v>41817</v>
+      </c>
+      <c r="B285" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A286" s="2">
+        <v>41816</v>
+      </c>
+      <c r="B286" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A287" s="2">
+        <v>41815</v>
+      </c>
+      <c r="B287" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A288" s="2">
+        <v>41814</v>
+      </c>
+      <c r="B288" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A289" s="2">
+        <v>41813</v>
+      </c>
+      <c r="B289" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A290" s="2">
+        <v>41812</v>
+      </c>
+      <c r="B290" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A291" s="2">
+        <v>41811</v>
+      </c>
+      <c r="B291" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A292" s="2">
+        <v>41810</v>
+      </c>
+      <c r="B292" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A293" s="2">
+        <v>41809</v>
+      </c>
+      <c r="B293" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A294" s="2">
+        <v>41808</v>
+      </c>
+      <c r="B294" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A295" s="2">
+        <v>41807</v>
+      </c>
+      <c r="B295" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A296" s="2">
+        <v>41806</v>
+      </c>
+      <c r="B296" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A297" s="2">
+        <v>41805</v>
+      </c>
+      <c r="B297" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A298" s="2">
+        <v>41804</v>
+      </c>
+      <c r="B298" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A299" s="2">
+        <v>41803</v>
+      </c>
+      <c r="B299" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A300" s="2">
+        <v>41802</v>
+      </c>
+      <c r="B300" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A301" s="2">
+        <v>41801</v>
+      </c>
+      <c r="B301" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A302" s="2">
+        <v>41800</v>
+      </c>
+      <c r="B302" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A303" s="2">
+        <v>41799</v>
+      </c>
+      <c r="B303" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A304" s="2">
+        <v>41798</v>
+      </c>
+      <c r="B304" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A305" s="2">
+        <v>41797</v>
+      </c>
+      <c r="B305" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A306" s="2">
+        <v>41796</v>
+      </c>
+      <c r="B306" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A307" s="2">
+        <v>41795</v>
+      </c>
+      <c r="B307" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A308" s="2">
+        <v>41794</v>
+      </c>
+      <c r="B308" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A309" s="2">
+        <v>41793</v>
+      </c>
+      <c r="B309" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A310" s="2">
+        <v>41792</v>
+      </c>
+      <c r="B310" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A311" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B311" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A312" s="2">
+        <v>41790</v>
+      </c>
+      <c r="B312" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A313" s="2">
+        <v>41789</v>
+      </c>
+      <c r="B313" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A314" s="2">
+        <v>41788</v>
+      </c>
+      <c r="B314" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A315" s="2">
+        <v>41787</v>
+      </c>
+      <c r="B315" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A316" s="2">
+        <v>41786</v>
+      </c>
+      <c r="B316" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A317" s="2">
+        <v>41785</v>
+      </c>
+      <c r="B317" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A318" s="2">
+        <v>41784</v>
+      </c>
+      <c r="B318" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A319" s="2">
+        <v>41783</v>
+      </c>
+      <c r="B319" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A320" s="2">
+        <v>41782</v>
+      </c>
+      <c r="B320" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A321" s="2">
+        <v>41781</v>
+      </c>
+      <c r="B321" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A322" s="2">
+        <v>41780</v>
+      </c>
+      <c r="B322" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A323" s="2">
+        <v>41779</v>
+      </c>
+      <c r="B323" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A324" s="2">
+        <v>41778</v>
+      </c>
+      <c r="B324" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A325" s="2">
+        <v>41777</v>
+      </c>
+      <c r="B325" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A326" s="2">
+        <v>41776</v>
+      </c>
+      <c r="B326" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A327" s="2">
+        <v>41775</v>
+      </c>
+      <c r="B327" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A328" s="2">
+        <v>41774</v>
+      </c>
+      <c r="B328" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A329" s="2">
+        <v>41773</v>
+      </c>
+      <c r="B329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A330" s="2">
+        <v>41772</v>
+      </c>
+      <c r="B330" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A331" s="2">
+        <v>41771</v>
+      </c>
+      <c r="B331" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A332" s="2">
+        <v>41770</v>
+      </c>
+      <c r="B332" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A333" s="2">
+        <v>41769</v>
+      </c>
+      <c r="B333" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A334" s="2">
+        <v>41768</v>
+      </c>
+      <c r="B334" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A335" s="2">
+        <v>41767</v>
+      </c>
+      <c r="B335" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A336" s="2">
+        <v>41766</v>
+      </c>
+      <c r="B336" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A337" s="2">
+        <v>41765</v>
+      </c>
+      <c r="B337" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A338" s="2">
+        <v>41764</v>
+      </c>
+      <c r="B338" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A339" s="2">
+        <v>41763</v>
+      </c>
+      <c r="B339" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A340" s="2">
+        <v>41762</v>
+      </c>
+      <c r="B340" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A341" s="2">
+        <v>41761</v>
+      </c>
+      <c r="B341" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A342" s="2">
+        <v>41760</v>
+      </c>
+      <c r="B342" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A343" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B343" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A344" s="1">
+        <v>41758</v>
+      </c>
+      <c r="B344" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A345" s="1">
+        <v>41757</v>
+      </c>
+      <c r="B345" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A346" s="2">
+        <v>41756</v>
+      </c>
+      <c r="B346" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A347" s="2">
+        <v>41755</v>
+      </c>
+      <c r="B347" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A348" s="2">
+        <v>41754</v>
+      </c>
+      <c r="B348" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A349" s="2">
+        <v>41753</v>
+      </c>
+      <c r="B349" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A350" s="2">
+        <v>41752</v>
+      </c>
+      <c r="B350" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A351" s="2">
+        <v>41751</v>
+      </c>
+      <c r="B351" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A352" s="2">
+        <v>41750</v>
+      </c>
+      <c r="B352" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A353" s="2">
+        <v>41749</v>
+      </c>
+      <c r="B353" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A354" s="2">
+        <v>41748</v>
+      </c>
+      <c r="B354" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A355" s="2">
+        <v>41747</v>
+      </c>
+      <c r="B355" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A356" s="2">
+        <v>41746</v>
+      </c>
+      <c r="B356" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A357" s="2">
+        <v>41745</v>
+      </c>
+      <c r="B357" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A358" s="2">
+        <v>41744</v>
+      </c>
+      <c r="B358" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A359" s="2">
+        <v>41743</v>
+      </c>
+      <c r="B359" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A360" s="2">
+        <v>41742</v>
+      </c>
+      <c r="B360" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A361" s="2">
+        <v>41741</v>
+      </c>
+      <c r="B361" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A362" s="2">
+        <v>41740</v>
+      </c>
+      <c r="B362" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A363" s="2">
+        <v>41739</v>
+      </c>
+      <c r="B363" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A364" s="2">
+        <v>41738</v>
+      </c>
+      <c r="B364" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A365" s="2">
+        <v>41737</v>
+      </c>
+      <c r="B365" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A366" s="2">
+        <v>41736</v>
+      </c>
+      <c r="B366" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A367" s="2">
+        <v>41735</v>
+      </c>
+      <c r="B367" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A368" s="2">
+        <v>41734</v>
+      </c>
+      <c r="B368" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A369" s="2">
+        <v>41733</v>
+      </c>
+      <c r="B369" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A370" s="2">
+        <v>41732</v>
+      </c>
+      <c r="B370" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A371" s="2">
+        <v>41731</v>
+      </c>
+      <c r="B371" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A372" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B372" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A373" s="2">
+        <v>41729</v>
+      </c>
+      <c r="B373" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A374" s="2">
+        <v>41728</v>
+      </c>
+      <c r="B374" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A375" s="2">
+        <v>41727</v>
+      </c>
+      <c r="B375" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A376" s="2">
+        <v>41726</v>
+      </c>
+      <c r="B376" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A377" s="2">
+        <v>41725</v>
+      </c>
+      <c r="B377" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A378" s="2">
+        <v>41724</v>
+      </c>
+      <c r="B378" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A379" s="2">
+        <v>41723</v>
+      </c>
+      <c r="B379" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A380" s="2">
+        <v>41722</v>
+      </c>
+      <c r="B380" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A381" s="2">
+        <v>41721</v>
+      </c>
+      <c r="B381" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A382" s="2">
+        <v>41720</v>
+      </c>
+      <c r="B382" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A383" s="2">
+        <v>41719</v>
+      </c>
+      <c r="B383" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A384" s="2">
+        <v>41718</v>
+      </c>
+      <c r="B384" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A385" s="2">
+        <v>41717</v>
+      </c>
+      <c r="B385" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A386" s="2">
+        <v>41716</v>
+      </c>
+      <c r="B386" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A387" s="2">
+        <v>41715</v>
+      </c>
+      <c r="B387" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A388" s="2">
+        <v>41714</v>
+      </c>
+      <c r="B388" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A389" s="2">
+        <v>41713</v>
+      </c>
+      <c r="B389" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A390" s="2">
+        <v>41712</v>
+      </c>
+      <c r="B390" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A391" s="2">
+        <v>41711</v>
+      </c>
+      <c r="B391" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A392" s="2">
+        <v>41710</v>
+      </c>
+      <c r="B392" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A393" s="2">
+        <v>41709</v>
+      </c>
+      <c r="B393" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A394" s="2">
+        <v>41708</v>
+      </c>
+      <c r="B394" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A395" s="2">
+        <v>41707</v>
+      </c>
+      <c r="B395" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A396" s="2">
+        <v>41706</v>
+      </c>
+      <c r="B396" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A397" s="2">
+        <v>41705</v>
+      </c>
+      <c r="B397" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A398" s="2">
+        <v>41704</v>
+      </c>
+      <c r="B398" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A399" s="2">
+        <v>41703</v>
+      </c>
+      <c r="B399" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A400" s="2">
+        <v>41702</v>
+      </c>
+      <c r="B400" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A401" s="2">
+        <v>41701</v>
+      </c>
+      <c r="B401" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A402" s="2">
+        <v>41700</v>
+      </c>
+      <c r="B402" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A403" s="2">
+        <v>41699</v>
+      </c>
+      <c r="B403" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A404" s="2">
+        <v>41698</v>
+      </c>
+      <c r="B404" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A405" s="2">
+        <v>41697</v>
+      </c>
+      <c r="B405" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A406" s="2">
+        <v>41696</v>
+      </c>
+      <c r="B406" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A407" s="2">
+        <v>41695</v>
+      </c>
+      <c r="B407" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A408" s="2">
+        <v>41694</v>
+      </c>
+      <c r="B408" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A409" s="2">
+        <v>41693</v>
+      </c>
+      <c r="B409" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A410" s="2">
+        <v>41692</v>
+      </c>
+      <c r="B410" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A411" s="2">
+        <v>41691</v>
+      </c>
+      <c r="B411" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A412" s="2">
+        <v>41690</v>
+      </c>
+      <c r="B412" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A413" s="2">
+        <v>41689</v>
+      </c>
+      <c r="B413" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A414" s="2">
+        <v>41688</v>
+      </c>
+      <c r="B414" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A415" s="2">
+        <v>41687</v>
+      </c>
+      <c r="B415" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A416" s="2">
+        <v>41686</v>
+      </c>
+      <c r="B416" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A417" s="2">
+        <v>41685</v>
+      </c>
+      <c r="B417" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A418" s="2">
+        <v>41684</v>
+      </c>
+      <c r="B418" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A419" s="2">
+        <v>41683</v>
+      </c>
+      <c r="B419" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A420" s="2">
+        <v>41682</v>
+      </c>
+      <c r="B420" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A421" s="2">
+        <v>41681</v>
+      </c>
+      <c r="B421" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A422" s="2">
+        <v>41680</v>
+      </c>
+      <c r="B422" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A423" s="2">
+        <v>41679</v>
+      </c>
+      <c r="B423" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A424" s="2">
+        <v>41678</v>
+      </c>
+      <c r="B424" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A425" s="2">
+        <v>41677</v>
+      </c>
+      <c r="B425" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A426" s="2">
+        <v>41676</v>
+      </c>
+      <c r="B426" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A427" s="2">
+        <v>41675</v>
+      </c>
+      <c r="B427" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A428" s="2">
+        <v>41674</v>
+      </c>
+      <c r="B428" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A429" s="2">
+        <v>41673</v>
+      </c>
+      <c r="B429" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A430" s="2">
+        <v>41672</v>
+      </c>
+      <c r="B430" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A431" s="2">
+        <v>41671</v>
+      </c>
+      <c r="B431" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A432" s="2">
+        <v>41670</v>
+      </c>
+      <c r="B432" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A433" s="2">
+        <v>41669</v>
+      </c>
+      <c r="B433" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A434" s="2">
+        <v>41668</v>
+      </c>
+      <c r="B434" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A435" s="2">
+        <v>41667</v>
+      </c>
+      <c r="B435" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A436" s="2">
+        <v>41666</v>
+      </c>
+      <c r="B436" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A437" s="2">
+        <v>41665</v>
+      </c>
+      <c r="B437" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A438" s="2">
+        <v>41664</v>
+      </c>
+      <c r="B438" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A439" s="2">
+        <v>41663</v>
+      </c>
+      <c r="B439" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A440" s="2">
+        <v>41662</v>
+      </c>
+      <c r="B440" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A441" s="2">
+        <v>41661</v>
+      </c>
+      <c r="B441" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A442" s="2">
+        <v>41660</v>
+      </c>
+      <c r="B442" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A443" s="2">
+        <v>41659</v>
+      </c>
+      <c r="B443" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A444" s="2">
+        <v>41658</v>
+      </c>
+      <c r="B444" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A445" s="2">
+        <v>41657</v>
+      </c>
+      <c r="B445" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A446" s="2">
+        <v>41656</v>
+      </c>
+      <c r="B446" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A447" s="2">
+        <v>41655</v>
+      </c>
+      <c r="B447" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A448" s="2">
+        <v>41654</v>
+      </c>
+      <c r="B448" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A449" s="2">
+        <v>41653</v>
+      </c>
+      <c r="B449" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A450" s="2">
+        <v>41652</v>
+      </c>
+      <c r="B450" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A451" s="2">
+        <v>41651</v>
+      </c>
+      <c r="B451" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A452" s="2">
+        <v>41650</v>
+      </c>
+      <c r="B452" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A453" s="2">
+        <v>41649</v>
+      </c>
+      <c r="B453" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A454" s="2">
+        <v>41648</v>
+      </c>
+      <c r="B454" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A455" s="2">
+        <v>41647</v>
+      </c>
+      <c r="B455" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A456" s="2">
+        <v>41646</v>
+      </c>
+      <c r="B456" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A457" s="2">
+        <v>41645</v>
+      </c>
+      <c r="B457" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A458" s="2">
+        <v>41644</v>
+      </c>
+      <c r="B458" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A459" s="2">
+        <v>41643</v>
+      </c>
+      <c r="B459" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A460" s="2">
+        <v>41642</v>
+      </c>
+      <c r="B460" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A461" s="2">
+        <v>41641</v>
+      </c>
+      <c r="B461" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A462" s="2">
+        <v>41640</v>
+      </c>
+      <c r="B462" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Task/2014-04-10大家电销售进RA/2015-04-01_大家电_历史销售_进RA.xlsx
+++ b/Task/2014-04-10大家电销售进RA/2015-04-01_大家电_历史销售_进RA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="9">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,6 +25,26 @@
   </si>
   <si>
     <t>已导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除(2015-05-06)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据正确,无需删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -387,261 +407,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B462"/>
+  <dimension ref="A1:D491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>42100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>42099</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>42098</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>42097</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>42096</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42125</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>42095</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>42094</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>42093</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>42092</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>42091</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>42090</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>42089</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>42088</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>42087</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>42086</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
+        <v>42115</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>42085</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
+        <v>42114</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>42084</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
+        <v>42113</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>42083</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
+        <v>42112</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>42082</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
+        <v>42111</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>42081</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
+        <v>42110</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>42080</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
+        <v>42109</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>42079</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
+        <v>42108</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>42078</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
+        <v>42107</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>42077</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
+        <v>42106</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>42076</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
+        <v>42105</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>42075</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
+        <v>42104</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>42074</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
+        <v>42103</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>42073</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
+        <v>42102</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>42072</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
+        <v>42101</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>42071</v>
+        <v>42100</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -649,7 +617,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>42070</v>
+        <v>42099</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -657,7 +625,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>42069</v>
+        <v>42098</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -665,7 +633,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>42068</v>
+        <v>42097</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -673,7 +641,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>42067</v>
+        <v>42096</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -681,7 +649,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>42066</v>
+        <v>42095</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -689,7 +657,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>42065</v>
+        <v>42094</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
@@ -697,7 +665,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>42064</v>
+        <v>42093</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -705,7 +673,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>42063</v>
+        <v>42092</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
@@ -713,7 +681,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>42062</v>
+        <v>42091</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
@@ -721,7 +689,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>42061</v>
+        <v>42090</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
@@ -729,7 +697,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>42060</v>
+        <v>42089</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
@@ -737,7 +705,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>42059</v>
+        <v>42088</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
@@ -745,7 +713,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>42058</v>
+        <v>42087</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
@@ -753,239 +721,239 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
+        <v>42086</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>42085</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>42084</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>42083</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>42082</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>42081</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>42080</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>42079</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>42078</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>42077</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>42076</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>42075</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>42074</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>42073</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>42072</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>42071</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>42070</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>42069</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>42068</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>42067</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>42066</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>42065</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>42063</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>42062</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>42061</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>42060</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>42059</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>42058</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
         <v>42057</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="2">
-        <v>42056</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="2">
-        <v>42055</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="2">
-        <v>42054</v>
-      </c>
-      <c r="B48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="2">
-        <v>42053</v>
-      </c>
-      <c r="B49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="2">
-        <v>42052</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="2">
-        <v>42051</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="2">
-        <v>42050</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="2">
-        <v>42049</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="2">
-        <v>42048</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="2">
-        <v>42047</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="2">
-        <v>42046</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="2">
-        <v>42045</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="2">
-        <v>42044</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="2">
-        <v>42043</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="2">
-        <v>42042</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="2">
-        <v>42041</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="2">
-        <v>42040</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="2">
-        <v>42039</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="2">
-        <v>42038</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="2">
-        <v>42037</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="2">
-        <v>42036</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="2">
-        <v>42035</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="2">
-        <v>42034</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="2">
-        <v>42033</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="2">
-        <v>42032</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="2">
-        <v>42031</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="2">
-        <v>42030</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="2">
-        <v>42029</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="2">
-        <v>42028</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
@@ -993,7 +961,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
-        <v>42027</v>
+        <v>42056</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
@@ -1001,7 +969,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
-        <v>42026</v>
+        <v>42055</v>
       </c>
       <c r="B76" t="s">
         <v>2</v>
@@ -1009,7 +977,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
-        <v>42025</v>
+        <v>42054</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
@@ -1017,7 +985,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
-        <v>42024</v>
+        <v>42053</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
@@ -1025,7 +993,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
-        <v>42023</v>
+        <v>42052</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
@@ -1033,7 +1001,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
-        <v>42022</v>
+        <v>42051</v>
       </c>
       <c r="B80" t="s">
         <v>2</v>
@@ -1041,7 +1009,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
-        <v>42021</v>
+        <v>42050</v>
       </c>
       <c r="B81" t="s">
         <v>2</v>
@@ -1049,7 +1017,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
-        <v>42020</v>
+        <v>42049</v>
       </c>
       <c r="B82" t="s">
         <v>2</v>
@@ -1057,7 +1025,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
-        <v>42019</v>
+        <v>42048</v>
       </c>
       <c r="B83" t="s">
         <v>2</v>
@@ -1065,7 +1033,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
-        <v>42018</v>
+        <v>42047</v>
       </c>
       <c r="B84" t="s">
         <v>2</v>
@@ -1073,7 +1041,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
-        <v>42017</v>
+        <v>42046</v>
       </c>
       <c r="B85" t="s">
         <v>2</v>
@@ -1081,7 +1049,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
-        <v>42016</v>
+        <v>42045</v>
       </c>
       <c r="B86" t="s">
         <v>2</v>
@@ -1089,7 +1057,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
-        <v>42015</v>
+        <v>42044</v>
       </c>
       <c r="B87" t="s">
         <v>2</v>
@@ -1097,7 +1065,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
-        <v>42014</v>
+        <v>42043</v>
       </c>
       <c r="B88" t="s">
         <v>2</v>
@@ -1105,7 +1073,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
-        <v>42013</v>
+        <v>42042</v>
       </c>
       <c r="B89" t="s">
         <v>2</v>
@@ -1113,7 +1081,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
-        <v>42012</v>
+        <v>42041</v>
       </c>
       <c r="B90" t="s">
         <v>2</v>
@@ -1121,7 +1089,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
-        <v>42011</v>
+        <v>42040</v>
       </c>
       <c r="B91" t="s">
         <v>2</v>
@@ -1129,7 +1097,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
-        <v>42010</v>
+        <v>42039</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
@@ -1137,7 +1105,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
-        <v>42009</v>
+        <v>42038</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
@@ -1145,7 +1113,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
-        <v>42008</v>
+        <v>42037</v>
       </c>
       <c r="B94" t="s">
         <v>2</v>
@@ -1153,7 +1121,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
-        <v>42007</v>
+        <v>42036</v>
       </c>
       <c r="B95" t="s">
         <v>2</v>
@@ -1161,7 +1129,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
-        <v>42006</v>
+        <v>42035</v>
       </c>
       <c r="B96" t="s">
         <v>2</v>
@@ -1169,239 +1137,239 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
+        <v>42034</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="2">
+        <v>42033</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="2">
+        <v>42032</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="2">
+        <v>42031</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="2">
+        <v>42030</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="2">
+        <v>42029</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="2">
+        <v>42028</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" s="2">
+        <v>42027</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="2">
+        <v>42026</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="2">
+        <v>42025</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="2">
+        <v>42024</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" s="2">
+        <v>42023</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" s="2">
+        <v>42022</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="2">
+        <v>42021</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" s="2">
+        <v>42020</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" s="2">
+        <v>42019</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="2">
+        <v>42018</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="2">
+        <v>42017</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" s="2">
+        <v>42016</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="2">
+        <v>42015</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" s="2">
+        <v>42014</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="2">
+        <v>42013</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="2">
+        <v>42012</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" s="2">
+        <v>42011</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" s="2">
+        <v>42010</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" s="2">
+        <v>42009</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" s="2">
+        <v>42008</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" s="2">
+        <v>42007</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" s="2">
+        <v>42006</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" s="2">
         <v>42005</v>
-      </c>
-      <c r="B97" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" s="1">
-        <v>42004</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" s="1">
-        <v>42003</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100" s="1">
-        <v>42002</v>
-      </c>
-      <c r="B100" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A101" s="1">
-        <v>42001</v>
-      </c>
-      <c r="B101" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A102" s="1">
-        <v>42000</v>
-      </c>
-      <c r="B102" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" s="1">
-        <v>41999</v>
-      </c>
-      <c r="B103" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104" s="1">
-        <v>41998</v>
-      </c>
-      <c r="B104" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A105" s="1">
-        <v>41997</v>
-      </c>
-      <c r="B105" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106" s="1">
-        <v>41996</v>
-      </c>
-      <c r="B106" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A107" s="1">
-        <v>41995</v>
-      </c>
-      <c r="B107" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A108" s="1">
-        <v>41994</v>
-      </c>
-      <c r="B108" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109" s="1">
-        <v>41993</v>
-      </c>
-      <c r="B109" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A110" s="1">
-        <v>41992</v>
-      </c>
-      <c r="B110" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A111" s="1">
-        <v>41991</v>
-      </c>
-      <c r="B111" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A112" s="1">
-        <v>41990</v>
-      </c>
-      <c r="B112" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113" s="1">
-        <v>41989</v>
-      </c>
-      <c r="B113" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A114" s="1">
-        <v>41988</v>
-      </c>
-      <c r="B114" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A115" s="1">
-        <v>41987</v>
-      </c>
-      <c r="B115" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A116" s="1">
-        <v>41986</v>
-      </c>
-      <c r="B116" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A117" s="1">
-        <v>41985</v>
-      </c>
-      <c r="B117" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118" s="1">
-        <v>41984</v>
-      </c>
-      <c r="B118" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A119" s="1">
-        <v>41983</v>
-      </c>
-      <c r="B119" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A120" s="1">
-        <v>41982</v>
-      </c>
-      <c r="B120" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A121" s="1">
-        <v>41981</v>
-      </c>
-      <c r="B121" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A122" s="1">
-        <v>41980</v>
-      </c>
-      <c r="B122" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A123" s="1">
-        <v>41979</v>
-      </c>
-      <c r="B123" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A124" s="1">
-        <v>41978</v>
-      </c>
-      <c r="B124" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A125" s="1">
-        <v>41977</v>
-      </c>
-      <c r="B125" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A126" s="1">
-        <v>41976</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
@@ -1409,7 +1377,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
-        <v>41975</v>
+        <v>42004</v>
       </c>
       <c r="B127" t="s">
         <v>2</v>
@@ -1417,239 +1385,239 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
+        <v>42003</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" s="1">
+        <v>42002</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" s="1">
+        <v>42001</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" s="1">
+        <v>42000</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" s="1">
+        <v>41999</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" s="1">
+        <v>41998</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" s="1">
+        <v>41997</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" s="1">
+        <v>41996</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" s="1">
+        <v>41995</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" s="1">
+        <v>41994</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" s="1">
+        <v>41993</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" s="1">
+        <v>41992</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" s="1">
+        <v>41991</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" s="1">
+        <v>41990</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" s="1">
+        <v>41989</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" s="1">
+        <v>41988</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" s="1">
+        <v>41987</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" s="1">
+        <v>41986</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" s="1">
+        <v>41985</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" s="1">
+        <v>41984</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" s="1">
+        <v>41983</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150" s="1">
+        <v>41981</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" s="1">
+        <v>41980</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" s="1">
+        <v>41979</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" s="1">
+        <v>41978</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154" s="1">
+        <v>41977</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" s="1">
+        <v>41976</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156" s="1">
+        <v>41975</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157" s="1">
         <v>41974</v>
-      </c>
-      <c r="B128" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A129" s="2">
-        <v>41973</v>
-      </c>
-      <c r="B129" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A130" s="2">
-        <v>41972</v>
-      </c>
-      <c r="B130" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A131" s="2">
-        <v>41971</v>
-      </c>
-      <c r="B131" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A132" s="2">
-        <v>41970</v>
-      </c>
-      <c r="B132" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A133" s="2">
-        <v>41969</v>
-      </c>
-      <c r="B133" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A134" s="2">
-        <v>41968</v>
-      </c>
-      <c r="B134" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A135" s="2">
-        <v>41967</v>
-      </c>
-      <c r="B135" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A136" s="2">
-        <v>41966</v>
-      </c>
-      <c r="B136" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A137" s="2">
-        <v>41965</v>
-      </c>
-      <c r="B137" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A138" s="2">
-        <v>41964</v>
-      </c>
-      <c r="B138" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A139" s="2">
-        <v>41963</v>
-      </c>
-      <c r="B139" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A140" s="2">
-        <v>41962</v>
-      </c>
-      <c r="B140" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A141" s="2">
-        <v>41961</v>
-      </c>
-      <c r="B141" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A142" s="2">
-        <v>41960</v>
-      </c>
-      <c r="B142" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A143" s="2">
-        <v>41959</v>
-      </c>
-      <c r="B143" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A144" s="2">
-        <v>41958</v>
-      </c>
-      <c r="B144" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A145" s="2">
-        <v>41957</v>
-      </c>
-      <c r="B145" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A146" s="2">
-        <v>41956</v>
-      </c>
-      <c r="B146" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A147" s="2">
-        <v>41955</v>
-      </c>
-      <c r="B147" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A148" s="2">
-        <v>41954</v>
-      </c>
-      <c r="B148" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A149" s="2">
-        <v>41953</v>
-      </c>
-      <c r="B149" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A150" s="2">
-        <v>41952</v>
-      </c>
-      <c r="B150" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A151" s="2">
-        <v>41951</v>
-      </c>
-      <c r="B151" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A152" s="2">
-        <v>41950</v>
-      </c>
-      <c r="B152" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A153" s="2">
-        <v>41949</v>
-      </c>
-      <c r="B153" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A154" s="2">
-        <v>41948</v>
-      </c>
-      <c r="B154" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A155" s="2">
-        <v>41947</v>
-      </c>
-      <c r="B155" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A156" s="2">
-        <v>41946</v>
-      </c>
-      <c r="B156" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A157" s="2">
-        <v>41945</v>
       </c>
       <c r="B157" t="s">
         <v>2</v>
@@ -1657,7 +1625,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
-        <v>41944</v>
+        <v>41973</v>
       </c>
       <c r="B158" t="s">
         <v>2</v>
@@ -1665,7 +1633,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
-        <v>41943</v>
+        <v>41972</v>
       </c>
       <c r="B159" t="s">
         <v>2</v>
@@ -1673,7 +1641,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
-        <v>41942</v>
+        <v>41971</v>
       </c>
       <c r="B160" t="s">
         <v>2</v>
@@ -1681,7 +1649,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
-        <v>41941</v>
+        <v>41970</v>
       </c>
       <c r="B161" t="s">
         <v>2</v>
@@ -1689,7 +1657,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
-        <v>41940</v>
+        <v>41969</v>
       </c>
       <c r="B162" t="s">
         <v>2</v>
@@ -1697,7 +1665,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
-        <v>41939</v>
+        <v>41968</v>
       </c>
       <c r="B163" t="s">
         <v>2</v>
@@ -1705,7 +1673,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
-        <v>41938</v>
+        <v>41967</v>
       </c>
       <c r="B164" t="s">
         <v>2</v>
@@ -1713,7 +1681,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
-        <v>41937</v>
+        <v>41966</v>
       </c>
       <c r="B165" t="s">
         <v>2</v>
@@ -1721,7 +1689,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
-        <v>41936</v>
+        <v>41965</v>
       </c>
       <c r="B166" t="s">
         <v>2</v>
@@ -1729,7 +1697,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
-        <v>41935</v>
+        <v>41964</v>
       </c>
       <c r="B167" t="s">
         <v>2</v>
@@ -1737,7 +1705,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
-        <v>41934</v>
+        <v>41963</v>
       </c>
       <c r="B168" t="s">
         <v>2</v>
@@ -1745,7 +1713,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
-        <v>41933</v>
+        <v>41962</v>
       </c>
       <c r="B169" t="s">
         <v>2</v>
@@ -1753,7 +1721,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
-        <v>41932</v>
+        <v>41961</v>
       </c>
       <c r="B170" t="s">
         <v>2</v>
@@ -1761,7 +1729,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
-        <v>41931</v>
+        <v>41960</v>
       </c>
       <c r="B171" t="s">
         <v>2</v>
@@ -1769,7 +1737,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
-        <v>41930</v>
+        <v>41959</v>
       </c>
       <c r="B172" t="s">
         <v>2</v>
@@ -1777,7 +1745,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
-        <v>41929</v>
+        <v>41958</v>
       </c>
       <c r="B173" t="s">
         <v>2</v>
@@ -1785,7 +1753,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
-        <v>41928</v>
+        <v>41957</v>
       </c>
       <c r="B174" t="s">
         <v>2</v>
@@ -1793,7 +1761,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
-        <v>41927</v>
+        <v>41956</v>
       </c>
       <c r="B175" t="s">
         <v>2</v>
@@ -1801,7 +1769,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
-        <v>41926</v>
+        <v>41955</v>
       </c>
       <c r="B176" t="s">
         <v>2</v>
@@ -1809,7 +1777,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
-        <v>41925</v>
+        <v>41954</v>
       </c>
       <c r="B177" t="s">
         <v>2</v>
@@ -1817,7 +1785,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
-        <v>41924</v>
+        <v>41953</v>
       </c>
       <c r="B178" t="s">
         <v>2</v>
@@ -1825,7 +1793,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
-        <v>41923</v>
+        <v>41952</v>
       </c>
       <c r="B179" t="s">
         <v>2</v>
@@ -1833,7 +1801,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
-        <v>41922</v>
+        <v>41951</v>
       </c>
       <c r="B180" t="s">
         <v>2</v>
@@ -1841,7 +1809,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
-        <v>41921</v>
+        <v>41950</v>
       </c>
       <c r="B181" t="s">
         <v>2</v>
@@ -1849,7 +1817,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
-        <v>41920</v>
+        <v>41949</v>
       </c>
       <c r="B182" t="s">
         <v>2</v>
@@ -1857,7 +1825,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="2">
-        <v>41919</v>
+        <v>41948</v>
       </c>
       <c r="B183" t="s">
         <v>2</v>
@@ -1865,7 +1833,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
-        <v>41918</v>
+        <v>41947</v>
       </c>
       <c r="B184" t="s">
         <v>2</v>
@@ -1873,7 +1841,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="2">
-        <v>41917</v>
+        <v>41946</v>
       </c>
       <c r="B185" t="s">
         <v>2</v>
@@ -1881,7 +1849,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
-        <v>41916</v>
+        <v>41945</v>
       </c>
       <c r="B186" t="s">
         <v>2</v>
@@ -1889,7 +1857,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
-        <v>41915</v>
+        <v>41944</v>
       </c>
       <c r="B187" t="s">
         <v>2</v>
@@ -1897,7 +1865,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" s="2">
-        <v>41914</v>
+        <v>41943</v>
       </c>
       <c r="B188" t="s">
         <v>2</v>
@@ -1905,7 +1873,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
-        <v>41913</v>
+        <v>41942</v>
       </c>
       <c r="B189" t="s">
         <v>2</v>
@@ -1913,7 +1881,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" s="2">
-        <v>41912</v>
+        <v>41941</v>
       </c>
       <c r="B190" t="s">
         <v>2</v>
@@ -1921,7 +1889,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="2">
-        <v>41911</v>
+        <v>41940</v>
       </c>
       <c r="B191" t="s">
         <v>2</v>
@@ -1929,7 +1897,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" s="2">
-        <v>41910</v>
+        <v>41939</v>
       </c>
       <c r="B192" t="s">
         <v>2</v>
@@ -1937,7 +1905,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
-        <v>41909</v>
+        <v>41938</v>
       </c>
       <c r="B193" t="s">
         <v>2</v>
@@ -1945,7 +1913,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" s="2">
-        <v>41908</v>
+        <v>41937</v>
       </c>
       <c r="B194" t="s">
         <v>2</v>
@@ -1953,7 +1921,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" s="2">
-        <v>41907</v>
+        <v>41936</v>
       </c>
       <c r="B195" t="s">
         <v>2</v>
@@ -1961,7 +1929,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" s="2">
-        <v>41906</v>
+        <v>41935</v>
       </c>
       <c r="B196" t="s">
         <v>2</v>
@@ -1969,7 +1937,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" s="2">
-        <v>41905</v>
+        <v>41934</v>
       </c>
       <c r="B197" t="s">
         <v>2</v>
@@ -1977,7 +1945,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" s="2">
-        <v>41904</v>
+        <v>41933</v>
       </c>
       <c r="B198" t="s">
         <v>2</v>
@@ -1985,7 +1953,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" s="2">
-        <v>41903</v>
+        <v>41932</v>
       </c>
       <c r="B199" t="s">
         <v>2</v>
@@ -1993,7 +1961,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" s="2">
-        <v>41902</v>
+        <v>41931</v>
       </c>
       <c r="B200" t="s">
         <v>2</v>
@@ -2001,7 +1969,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" s="2">
-        <v>41901</v>
+        <v>41930</v>
       </c>
       <c r="B201" t="s">
         <v>2</v>
@@ -2009,7 +1977,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" s="2">
-        <v>41900</v>
+        <v>41929</v>
       </c>
       <c r="B202" t="s">
         <v>2</v>
@@ -2017,7 +1985,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" s="2">
-        <v>41899</v>
+        <v>41928</v>
       </c>
       <c r="B203" t="s">
         <v>2</v>
@@ -2025,7 +1993,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" s="2">
-        <v>41898</v>
+        <v>41927</v>
       </c>
       <c r="B204" t="s">
         <v>2</v>
@@ -2033,7 +2001,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" s="2">
-        <v>41897</v>
+        <v>41926</v>
       </c>
       <c r="B205" t="s">
         <v>2</v>
@@ -2041,7 +2009,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" s="2">
-        <v>41896</v>
+        <v>41925</v>
       </c>
       <c r="B206" t="s">
         <v>2</v>
@@ -2049,7 +2017,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" s="2">
-        <v>41895</v>
+        <v>41924</v>
       </c>
       <c r="B207" t="s">
         <v>2</v>
@@ -2057,7 +2025,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" s="2">
-        <v>41894</v>
+        <v>41923</v>
       </c>
       <c r="B208" t="s">
         <v>2</v>
@@ -2065,7 +2033,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" s="2">
-        <v>41893</v>
+        <v>41922</v>
       </c>
       <c r="B209" t="s">
         <v>2</v>
@@ -2073,7 +2041,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" s="2">
-        <v>41892</v>
+        <v>41921</v>
       </c>
       <c r="B210" t="s">
         <v>2</v>
@@ -2081,7 +2049,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" s="2">
-        <v>41891</v>
+        <v>41920</v>
       </c>
       <c r="B211" t="s">
         <v>2</v>
@@ -2089,7 +2057,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" s="2">
-        <v>41890</v>
+        <v>41919</v>
       </c>
       <c r="B212" t="s">
         <v>2</v>
@@ -2097,7 +2065,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" s="2">
-        <v>41889</v>
+        <v>41918</v>
       </c>
       <c r="B213" t="s">
         <v>2</v>
@@ -2105,7 +2073,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" s="2">
-        <v>41888</v>
+        <v>41917</v>
       </c>
       <c r="B214" t="s">
         <v>2</v>
@@ -2113,7 +2081,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" s="2">
-        <v>41887</v>
+        <v>41916</v>
       </c>
       <c r="B215" t="s">
         <v>2</v>
@@ -2121,7 +2089,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" s="2">
-        <v>41886</v>
+        <v>41915</v>
       </c>
       <c r="B216" t="s">
         <v>2</v>
@@ -2129,7 +2097,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" s="2">
-        <v>41885</v>
+        <v>41914</v>
       </c>
       <c r="B217" t="s">
         <v>2</v>
@@ -2137,7 +2105,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" s="2">
-        <v>41884</v>
+        <v>41913</v>
       </c>
       <c r="B218" t="s">
         <v>2</v>
@@ -2145,7 +2113,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" s="2">
-        <v>41883</v>
+        <v>41912</v>
       </c>
       <c r="B219" t="s">
         <v>2</v>
@@ -2153,7 +2121,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" s="2">
-        <v>41882</v>
+        <v>41911</v>
       </c>
       <c r="B220" t="s">
         <v>2</v>
@@ -2161,7 +2129,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" s="2">
-        <v>41881</v>
+        <v>41910</v>
       </c>
       <c r="B221" t="s">
         <v>2</v>
@@ -2169,7 +2137,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" s="2">
-        <v>41880</v>
+        <v>41909</v>
       </c>
       <c r="B222" t="s">
         <v>2</v>
@@ -2177,7 +2145,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" s="2">
-        <v>41879</v>
+        <v>41908</v>
       </c>
       <c r="B223" t="s">
         <v>2</v>
@@ -2185,7 +2153,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" s="2">
-        <v>41878</v>
+        <v>41907</v>
       </c>
       <c r="B224" t="s">
         <v>2</v>
@@ -2193,7 +2161,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" s="2">
-        <v>41877</v>
+        <v>41906</v>
       </c>
       <c r="B225" t="s">
         <v>2</v>
@@ -2201,7 +2169,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" s="2">
-        <v>41876</v>
+        <v>41905</v>
       </c>
       <c r="B226" t="s">
         <v>2</v>
@@ -2209,7 +2177,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" s="2">
-        <v>41875</v>
+        <v>41904</v>
       </c>
       <c r="B227" t="s">
         <v>2</v>
@@ -2217,7 +2185,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" s="2">
-        <v>41874</v>
+        <v>41903</v>
       </c>
       <c r="B228" t="s">
         <v>2</v>
@@ -2225,7 +2193,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" s="2">
-        <v>41873</v>
+        <v>41902</v>
       </c>
       <c r="B229" t="s">
         <v>2</v>
@@ -2233,7 +2201,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" s="2">
-        <v>41872</v>
+        <v>41901</v>
       </c>
       <c r="B230" t="s">
         <v>2</v>
@@ -2241,7 +2209,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" s="2">
-        <v>41871</v>
+        <v>41900</v>
       </c>
       <c r="B231" t="s">
         <v>2</v>
@@ -2249,7 +2217,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" s="2">
-        <v>41870</v>
+        <v>41899</v>
       </c>
       <c r="B232" t="s">
         <v>2</v>
@@ -2257,7 +2225,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" s="2">
-        <v>41869</v>
+        <v>41898</v>
       </c>
       <c r="B233" t="s">
         <v>2</v>
@@ -2265,7 +2233,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" s="2">
-        <v>41868</v>
+        <v>41897</v>
       </c>
       <c r="B234" t="s">
         <v>2</v>
@@ -2273,7 +2241,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" s="2">
-        <v>41867</v>
+        <v>41896</v>
       </c>
       <c r="B235" t="s">
         <v>2</v>
@@ -2281,7 +2249,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" s="2">
-        <v>41866</v>
+        <v>41895</v>
       </c>
       <c r="B236" t="s">
         <v>2</v>
@@ -2289,7 +2257,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" s="2">
-        <v>41865</v>
+        <v>41894</v>
       </c>
       <c r="B237" t="s">
         <v>2</v>
@@ -2297,7 +2265,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" s="2">
-        <v>41864</v>
+        <v>41893</v>
       </c>
       <c r="B238" t="s">
         <v>2</v>
@@ -2305,7 +2273,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" s="2">
-        <v>41863</v>
+        <v>41892</v>
       </c>
       <c r="B239" t="s">
         <v>2</v>
@@ -2313,7 +2281,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" s="2">
-        <v>41862</v>
+        <v>41891</v>
       </c>
       <c r="B240" t="s">
         <v>2</v>
@@ -2321,7 +2289,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" s="2">
-        <v>41861</v>
+        <v>41890</v>
       </c>
       <c r="B241" t="s">
         <v>2</v>
@@ -2329,7 +2297,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" s="2">
-        <v>41860</v>
+        <v>41889</v>
       </c>
       <c r="B242" t="s">
         <v>2</v>
@@ -2337,7 +2305,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" s="2">
-        <v>41859</v>
+        <v>41888</v>
       </c>
       <c r="B243" t="s">
         <v>2</v>
@@ -2345,7 +2313,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" s="2">
-        <v>41858</v>
+        <v>41887</v>
       </c>
       <c r="B244" t="s">
         <v>2</v>
@@ -2353,7 +2321,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" s="2">
-        <v>41857</v>
+        <v>41886</v>
       </c>
       <c r="B245" t="s">
         <v>2</v>
@@ -2361,7 +2329,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" s="2">
-        <v>41856</v>
+        <v>41885</v>
       </c>
       <c r="B246" t="s">
         <v>2</v>
@@ -2369,7 +2337,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" s="2">
-        <v>41855</v>
+        <v>41884</v>
       </c>
       <c r="B247" t="s">
         <v>2</v>
@@ -2377,7 +2345,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" s="2">
-        <v>41854</v>
+        <v>41883</v>
       </c>
       <c r="B248" t="s">
         <v>2</v>
@@ -2385,7 +2353,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" s="2">
-        <v>41853</v>
+        <v>41882</v>
       </c>
       <c r="B249" t="s">
         <v>2</v>
@@ -2393,7 +2361,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" s="2">
-        <v>41852</v>
+        <v>41881</v>
       </c>
       <c r="B250" t="s">
         <v>2</v>
@@ -2401,7 +2369,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" s="2">
-        <v>41851</v>
+        <v>41880</v>
       </c>
       <c r="B251" t="s">
         <v>2</v>
@@ -2409,7 +2377,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" s="2">
-        <v>41850</v>
+        <v>41879</v>
       </c>
       <c r="B252" t="s">
         <v>2</v>
@@ -2417,7 +2385,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" s="2">
-        <v>41849</v>
+        <v>41878</v>
       </c>
       <c r="B253" t="s">
         <v>2</v>
@@ -2425,7 +2393,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" s="2">
-        <v>41848</v>
+        <v>41877</v>
       </c>
       <c r="B254" t="s">
         <v>2</v>
@@ -2433,7 +2401,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" s="2">
-        <v>41847</v>
+        <v>41876</v>
       </c>
       <c r="B255" t="s">
         <v>2</v>
@@ -2441,7 +2409,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" s="2">
-        <v>41846</v>
+        <v>41875</v>
       </c>
       <c r="B256" t="s">
         <v>2</v>
@@ -2449,7 +2417,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" s="2">
-        <v>41845</v>
+        <v>41874</v>
       </c>
       <c r="B257" t="s">
         <v>2</v>
@@ -2457,7 +2425,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" s="2">
-        <v>41844</v>
+        <v>41873</v>
       </c>
       <c r="B258" t="s">
         <v>2</v>
@@ -2465,7 +2433,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" s="2">
-        <v>41843</v>
+        <v>41872</v>
       </c>
       <c r="B259" t="s">
         <v>2</v>
@@ -2473,7 +2441,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" s="2">
-        <v>41842</v>
+        <v>41871</v>
       </c>
       <c r="B260" t="s">
         <v>2</v>
@@ -2481,7 +2449,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" s="2">
-        <v>41841</v>
+        <v>41870</v>
       </c>
       <c r="B261" t="s">
         <v>2</v>
@@ -2489,7 +2457,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" s="2">
-        <v>41840</v>
+        <v>41869</v>
       </c>
       <c r="B262" t="s">
         <v>2</v>
@@ -2497,7 +2465,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" s="2">
-        <v>41839</v>
+        <v>41868</v>
       </c>
       <c r="B263" t="s">
         <v>2</v>
@@ -2505,7 +2473,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" s="2">
-        <v>41838</v>
+        <v>41867</v>
       </c>
       <c r="B264" t="s">
         <v>2</v>
@@ -2513,7 +2481,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" s="2">
-        <v>41837</v>
+        <v>41866</v>
       </c>
       <c r="B265" t="s">
         <v>2</v>
@@ -2521,7 +2489,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" s="2">
-        <v>41836</v>
+        <v>41865</v>
       </c>
       <c r="B266" t="s">
         <v>2</v>
@@ -2529,7 +2497,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" s="2">
-        <v>41835</v>
+        <v>41864</v>
       </c>
       <c r="B267" t="s">
         <v>2</v>
@@ -2537,7 +2505,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" s="2">
-        <v>41834</v>
+        <v>41863</v>
       </c>
       <c r="B268" t="s">
         <v>2</v>
@@ -2545,7 +2513,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" s="2">
-        <v>41833</v>
+        <v>41862</v>
       </c>
       <c r="B269" t="s">
         <v>2</v>
@@ -2553,7 +2521,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" s="2">
-        <v>41832</v>
+        <v>41861</v>
       </c>
       <c r="B270" t="s">
         <v>2</v>
@@ -2561,7 +2529,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" s="2">
-        <v>41831</v>
+        <v>41860</v>
       </c>
       <c r="B271" t="s">
         <v>2</v>
@@ -2569,7 +2537,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" s="2">
-        <v>41830</v>
+        <v>41859</v>
       </c>
       <c r="B272" t="s">
         <v>2</v>
@@ -2577,7 +2545,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" s="2">
-        <v>41829</v>
+        <v>41858</v>
       </c>
       <c r="B273" t="s">
         <v>2</v>
@@ -2585,7 +2553,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" s="2">
-        <v>41828</v>
+        <v>41857</v>
       </c>
       <c r="B274" t="s">
         <v>2</v>
@@ -2593,7 +2561,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" s="2">
-        <v>41827</v>
+        <v>41856</v>
       </c>
       <c r="B275" t="s">
         <v>2</v>
@@ -2601,7 +2569,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" s="2">
-        <v>41826</v>
+        <v>41855</v>
       </c>
       <c r="B276" t="s">
         <v>2</v>
@@ -2609,7 +2577,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" s="2">
-        <v>41825</v>
+        <v>41854</v>
       </c>
       <c r="B277" t="s">
         <v>2</v>
@@ -2617,7 +2585,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" s="2">
-        <v>41824</v>
+        <v>41853</v>
       </c>
       <c r="B278" t="s">
         <v>2</v>
@@ -2625,7 +2593,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" s="2">
-        <v>41823</v>
+        <v>41852</v>
       </c>
       <c r="B279" t="s">
         <v>2</v>
@@ -2633,7 +2601,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A280" s="2">
-        <v>41822</v>
+        <v>41851</v>
       </c>
       <c r="B280" t="s">
         <v>2</v>
@@ -2641,7 +2609,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" s="2">
-        <v>41821</v>
+        <v>41850</v>
       </c>
       <c r="B281" t="s">
         <v>2</v>
@@ -2649,7 +2617,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A282" s="2">
-        <v>41820</v>
+        <v>41849</v>
       </c>
       <c r="B282" t="s">
         <v>2</v>
@@ -2657,7 +2625,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A283" s="2">
-        <v>41819</v>
+        <v>41848</v>
       </c>
       <c r="B283" t="s">
         <v>2</v>
@@ -2665,7 +2633,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A284" s="2">
-        <v>41818</v>
+        <v>41847</v>
       </c>
       <c r="B284" t="s">
         <v>2</v>
@@ -2673,7 +2641,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A285" s="2">
-        <v>41817</v>
+        <v>41846</v>
       </c>
       <c r="B285" t="s">
         <v>2</v>
@@ -2681,7 +2649,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A286" s="2">
-        <v>41816</v>
+        <v>41845</v>
       </c>
       <c r="B286" t="s">
         <v>2</v>
@@ -2689,7 +2657,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A287" s="2">
-        <v>41815</v>
+        <v>41844</v>
       </c>
       <c r="B287" t="s">
         <v>2</v>
@@ -2697,7 +2665,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" s="2">
-        <v>41814</v>
+        <v>41843</v>
       </c>
       <c r="B288" t="s">
         <v>2</v>
@@ -2705,7 +2673,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A289" s="2">
-        <v>41813</v>
+        <v>41842</v>
       </c>
       <c r="B289" t="s">
         <v>2</v>
@@ -2713,7 +2681,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A290" s="2">
-        <v>41812</v>
+        <v>41841</v>
       </c>
       <c r="B290" t="s">
         <v>2</v>
@@ -2721,7 +2689,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A291" s="2">
-        <v>41811</v>
+        <v>41840</v>
       </c>
       <c r="B291" t="s">
         <v>2</v>
@@ -2729,7 +2697,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A292" s="2">
-        <v>41810</v>
+        <v>41839</v>
       </c>
       <c r="B292" t="s">
         <v>2</v>
@@ -2737,7 +2705,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" s="2">
-        <v>41809</v>
+        <v>41838</v>
       </c>
       <c r="B293" t="s">
         <v>2</v>
@@ -2745,7 +2713,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A294" s="2">
-        <v>41808</v>
+        <v>41837</v>
       </c>
       <c r="B294" t="s">
         <v>2</v>
@@ -2753,7 +2721,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A295" s="2">
-        <v>41807</v>
+        <v>41836</v>
       </c>
       <c r="B295" t="s">
         <v>2</v>
@@ -2761,7 +2729,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A296" s="2">
-        <v>41806</v>
+        <v>41835</v>
       </c>
       <c r="B296" t="s">
         <v>2</v>
@@ -2769,7 +2737,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A297" s="2">
-        <v>41805</v>
+        <v>41834</v>
       </c>
       <c r="B297" t="s">
         <v>2</v>
@@ -2777,7 +2745,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" s="2">
-        <v>41804</v>
+        <v>41833</v>
       </c>
       <c r="B298" t="s">
         <v>2</v>
@@ -2785,7 +2753,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A299" s="2">
-        <v>41803</v>
+        <v>41832</v>
       </c>
       <c r="B299" t="s">
         <v>2</v>
@@ -2793,7 +2761,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A300" s="2">
-        <v>41802</v>
+        <v>41831</v>
       </c>
       <c r="B300" t="s">
         <v>2</v>
@@ -2801,7 +2769,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A301" s="2">
-        <v>41801</v>
+        <v>41830</v>
       </c>
       <c r="B301" t="s">
         <v>2</v>
@@ -2809,7 +2777,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A302" s="2">
-        <v>41800</v>
+        <v>41829</v>
       </c>
       <c r="B302" t="s">
         <v>2</v>
@@ -2817,7 +2785,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A303" s="2">
-        <v>41799</v>
+        <v>41828</v>
       </c>
       <c r="B303" t="s">
         <v>2</v>
@@ -2825,7 +2793,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A304" s="2">
-        <v>41798</v>
+        <v>41827</v>
       </c>
       <c r="B304" t="s">
         <v>2</v>
@@ -2833,7 +2801,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" s="2">
-        <v>41797</v>
+        <v>41826</v>
       </c>
       <c r="B305" t="s">
         <v>2</v>
@@ -2841,7 +2809,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" s="2">
-        <v>41796</v>
+        <v>41825</v>
       </c>
       <c r="B306" t="s">
         <v>2</v>
@@ -2849,7 +2817,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A307" s="2">
-        <v>41795</v>
+        <v>41824</v>
       </c>
       <c r="B307" t="s">
         <v>2</v>
@@ -2857,7 +2825,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" s="2">
-        <v>41794</v>
+        <v>41823</v>
       </c>
       <c r="B308" t="s">
         <v>2</v>
@@ -2865,7 +2833,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" s="2">
-        <v>41793</v>
+        <v>41822</v>
       </c>
       <c r="B309" t="s">
         <v>2</v>
@@ -2873,7 +2841,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A310" s="2">
-        <v>41792</v>
+        <v>41821</v>
       </c>
       <c r="B310" t="s">
         <v>2</v>
@@ -2881,7 +2849,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A311" s="2">
-        <v>41791</v>
+        <v>41820</v>
       </c>
       <c r="B311" t="s">
         <v>2</v>
@@ -2889,239 +2857,239 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" s="2">
-        <v>41790</v>
+        <v>41819</v>
       </c>
       <c r="B312" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A313" s="2">
-        <v>41789</v>
+        <v>41818</v>
       </c>
       <c r="B313" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A314" s="2">
-        <v>41788</v>
+        <v>41817</v>
       </c>
       <c r="B314" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A315" s="2">
-        <v>41787</v>
+        <v>41816</v>
       </c>
       <c r="B315" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" s="2">
-        <v>41786</v>
+        <v>41815</v>
       </c>
       <c r="B316" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" s="2">
-        <v>41785</v>
+        <v>41814</v>
       </c>
       <c r="B317" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" s="2">
-        <v>41784</v>
+        <v>41813</v>
       </c>
       <c r="B318" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" s="2">
-        <v>41783</v>
+        <v>41812</v>
       </c>
       <c r="B319" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A320" s="2">
-        <v>41782</v>
+        <v>41811</v>
       </c>
       <c r="B320" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A321" s="2">
-        <v>41781</v>
+        <v>41810</v>
       </c>
       <c r="B321" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A322" s="2">
-        <v>41780</v>
+        <v>41809</v>
       </c>
       <c r="B322" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A323" s="2">
-        <v>41779</v>
+        <v>41808</v>
       </c>
       <c r="B323" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" s="2">
-        <v>41778</v>
+        <v>41807</v>
       </c>
       <c r="B324" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" s="2">
-        <v>41777</v>
+        <v>41806</v>
       </c>
       <c r="B325" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A326" s="2">
-        <v>41776</v>
+        <v>41805</v>
       </c>
       <c r="B326" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A327" s="2">
-        <v>41775</v>
+        <v>41804</v>
       </c>
       <c r="B327" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A328" s="2">
-        <v>41774</v>
+        <v>41803</v>
       </c>
       <c r="B328" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A329" s="2">
-        <v>41773</v>
+        <v>41802</v>
       </c>
       <c r="B329" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" s="2">
-        <v>41772</v>
+        <v>41801</v>
       </c>
       <c r="B330" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" s="2">
-        <v>41771</v>
+        <v>41800</v>
       </c>
       <c r="B331" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" s="2">
-        <v>41770</v>
+        <v>41799</v>
       </c>
       <c r="B332" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A333" s="2">
-        <v>41769</v>
+        <v>41798</v>
       </c>
       <c r="B333" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A334" s="2">
-        <v>41768</v>
+        <v>41797</v>
       </c>
       <c r="B334" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A335" s="2">
-        <v>41767</v>
+        <v>41796</v>
       </c>
       <c r="B335" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A336" s="2">
-        <v>41766</v>
+        <v>41795</v>
       </c>
       <c r="B336" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" s="2">
-        <v>41765</v>
+        <v>41794</v>
       </c>
       <c r="B337" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A338" s="2">
-        <v>41764</v>
+        <v>41793</v>
       </c>
       <c r="B338" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A339" s="2">
-        <v>41763</v>
+        <v>41792</v>
       </c>
       <c r="B339" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A340" s="2">
-        <v>41762</v>
+        <v>41791</v>
       </c>
       <c r="B340" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A341" s="2">
-        <v>41761</v>
+        <v>41790</v>
       </c>
       <c r="B341" t="s">
         <v>3</v>
@@ -3129,31 +3097,31 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A342" s="2">
-        <v>41760</v>
+        <v>41789</v>
       </c>
       <c r="B342" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A343" s="1">
-        <v>41759</v>
+      <c r="A343" s="2">
+        <v>41788</v>
       </c>
       <c r="B343" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A344" s="1">
-        <v>41758</v>
+      <c r="A344" s="2">
+        <v>41787</v>
       </c>
       <c r="B344" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A345" s="1">
-        <v>41757</v>
+      <c r="A345" s="2">
+        <v>41786</v>
       </c>
       <c r="B345" t="s">
         <v>3</v>
@@ -3161,239 +3129,239 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A346" s="2">
-        <v>41756</v>
+        <v>41785</v>
       </c>
       <c r="B346" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A347" s="2">
-        <v>41755</v>
+        <v>41784</v>
       </c>
       <c r="B347" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A348" s="2">
-        <v>41754</v>
+        <v>41783</v>
       </c>
       <c r="B348" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A349" s="2">
-        <v>41753</v>
+        <v>41782</v>
       </c>
       <c r="B349" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A350" s="2">
-        <v>41752</v>
+        <v>41781</v>
       </c>
       <c r="B350" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" s="2">
-        <v>41751</v>
+        <v>41780</v>
       </c>
       <c r="B351" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A352" s="2">
-        <v>41750</v>
+        <v>41779</v>
       </c>
       <c r="B352" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A353" s="2">
-        <v>41749</v>
+        <v>41778</v>
       </c>
       <c r="B353" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A354" s="2">
-        <v>41748</v>
+        <v>41777</v>
       </c>
       <c r="B354" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A355" s="2">
-        <v>41747</v>
+        <v>41776</v>
       </c>
       <c r="B355" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A356" s="2">
-        <v>41746</v>
+        <v>41775</v>
       </c>
       <c r="B356" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A357" s="2">
-        <v>41745</v>
+        <v>41774</v>
       </c>
       <c r="B357" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A358" s="2">
-        <v>41744</v>
+        <v>41773</v>
       </c>
       <c r="B358" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A359" s="2">
-        <v>41743</v>
+        <v>41772</v>
       </c>
       <c r="B359" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A360" s="2">
-        <v>41742</v>
+        <v>41771</v>
       </c>
       <c r="B360" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A361" s="2">
-        <v>41741</v>
+        <v>41770</v>
       </c>
       <c r="B361" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A362" s="2">
-        <v>41740</v>
+        <v>41769</v>
       </c>
       <c r="B362" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A363" s="2">
-        <v>41739</v>
+        <v>41768</v>
       </c>
       <c r="B363" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A364" s="2">
-        <v>41738</v>
+        <v>41767</v>
       </c>
       <c r="B364" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A365" s="2">
-        <v>41737</v>
+        <v>41766</v>
       </c>
       <c r="B365" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A366" s="2">
-        <v>41736</v>
+        <v>41765</v>
       </c>
       <c r="B366" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A367" s="2">
-        <v>41735</v>
+        <v>41764</v>
       </c>
       <c r="B367" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A368" s="2">
-        <v>41734</v>
+        <v>41763</v>
       </c>
       <c r="B368" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A369" s="2">
-        <v>41733</v>
+        <v>41762</v>
       </c>
       <c r="B369" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A370" s="2">
-        <v>41732</v>
+        <v>41761</v>
       </c>
       <c r="B370" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A371" s="2">
-        <v>41731</v>
+        <v>41760</v>
       </c>
       <c r="B371" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A372" s="2">
-        <v>41730</v>
+      <c r="A372" s="1">
+        <v>41759</v>
       </c>
       <c r="B372" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A373" s="2">
-        <v>41729</v>
+      <c r="A373" s="1">
+        <v>41758</v>
       </c>
       <c r="B373" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A374" s="2">
-        <v>41728</v>
+      <c r="A374" s="1">
+        <v>41757</v>
       </c>
       <c r="B374" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A375" s="2">
-        <v>41727</v>
+        <v>41756</v>
       </c>
       <c r="B375" t="s">
         <v>2</v>
@@ -3401,7 +3369,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A376" s="2">
-        <v>41726</v>
+        <v>41755</v>
       </c>
       <c r="B376" t="s">
         <v>2</v>
@@ -3409,7 +3377,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A377" s="2">
-        <v>41725</v>
+        <v>41754</v>
       </c>
       <c r="B377" t="s">
         <v>2</v>
@@ -3417,7 +3385,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A378" s="2">
-        <v>41724</v>
+        <v>41753</v>
       </c>
       <c r="B378" t="s">
         <v>2</v>
@@ -3425,7 +3393,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A379" s="2">
-        <v>41723</v>
+        <v>41752</v>
       </c>
       <c r="B379" t="s">
         <v>2</v>
@@ -3433,7 +3401,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A380" s="2">
-        <v>41722</v>
+        <v>41751</v>
       </c>
       <c r="B380" t="s">
         <v>2</v>
@@ -3441,7 +3409,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A381" s="2">
-        <v>41721</v>
+        <v>41750</v>
       </c>
       <c r="B381" t="s">
         <v>2</v>
@@ -3449,7 +3417,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A382" s="2">
-        <v>41720</v>
+        <v>41749</v>
       </c>
       <c r="B382" t="s">
         <v>2</v>
@@ -3457,7 +3425,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A383" s="2">
-        <v>41719</v>
+        <v>41748</v>
       </c>
       <c r="B383" t="s">
         <v>2</v>
@@ -3465,7 +3433,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A384" s="2">
-        <v>41718</v>
+        <v>41747</v>
       </c>
       <c r="B384" t="s">
         <v>2</v>
@@ -3473,7 +3441,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A385" s="2">
-        <v>41717</v>
+        <v>41746</v>
       </c>
       <c r="B385" t="s">
         <v>2</v>
@@ -3481,7 +3449,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A386" s="2">
-        <v>41716</v>
+        <v>41745</v>
       </c>
       <c r="B386" t="s">
         <v>2</v>
@@ -3489,7 +3457,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A387" s="2">
-        <v>41715</v>
+        <v>41744</v>
       </c>
       <c r="B387" t="s">
         <v>2</v>
@@ -3497,7 +3465,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A388" s="2">
-        <v>41714</v>
+        <v>41743</v>
       </c>
       <c r="B388" t="s">
         <v>2</v>
@@ -3505,7 +3473,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A389" s="2">
-        <v>41713</v>
+        <v>41742</v>
       </c>
       <c r="B389" t="s">
         <v>2</v>
@@ -3513,7 +3481,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A390" s="2">
-        <v>41712</v>
+        <v>41741</v>
       </c>
       <c r="B390" t="s">
         <v>2</v>
@@ -3521,7 +3489,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A391" s="2">
-        <v>41711</v>
+        <v>41740</v>
       </c>
       <c r="B391" t="s">
         <v>2</v>
@@ -3529,7 +3497,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A392" s="2">
-        <v>41710</v>
+        <v>41739</v>
       </c>
       <c r="B392" t="s">
         <v>2</v>
@@ -3537,7 +3505,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A393" s="2">
-        <v>41709</v>
+        <v>41738</v>
       </c>
       <c r="B393" t="s">
         <v>2</v>
@@ -3545,7 +3513,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A394" s="2">
-        <v>41708</v>
+        <v>41737</v>
       </c>
       <c r="B394" t="s">
         <v>2</v>
@@ -3553,7 +3521,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A395" s="2">
-        <v>41707</v>
+        <v>41736</v>
       </c>
       <c r="B395" t="s">
         <v>2</v>
@@ -3561,7 +3529,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A396" s="2">
-        <v>41706</v>
+        <v>41735</v>
       </c>
       <c r="B396" t="s">
         <v>2</v>
@@ -3569,7 +3537,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A397" s="2">
-        <v>41705</v>
+        <v>41734</v>
       </c>
       <c r="B397" t="s">
         <v>2</v>
@@ -3577,7 +3545,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A398" s="2">
-        <v>41704</v>
+        <v>41733</v>
       </c>
       <c r="B398" t="s">
         <v>2</v>
@@ -3585,7 +3553,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A399" s="2">
-        <v>41703</v>
+        <v>41732</v>
       </c>
       <c r="B399" t="s">
         <v>2</v>
@@ -3593,7 +3561,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A400" s="2">
-        <v>41702</v>
+        <v>41731</v>
       </c>
       <c r="B400" t="s">
         <v>2</v>
@@ -3601,7 +3569,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A401" s="2">
-        <v>41701</v>
+        <v>41730</v>
       </c>
       <c r="B401" t="s">
         <v>2</v>
@@ -3609,7 +3577,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A402" s="2">
-        <v>41700</v>
+        <v>41729</v>
       </c>
       <c r="B402" t="s">
         <v>2</v>
@@ -3617,7 +3585,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A403" s="2">
-        <v>41699</v>
+        <v>41728</v>
       </c>
       <c r="B403" t="s">
         <v>2</v>
@@ -3625,7 +3593,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A404" s="2">
-        <v>41698</v>
+        <v>41727</v>
       </c>
       <c r="B404" t="s">
         <v>2</v>
@@ -3633,7 +3601,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A405" s="2">
-        <v>41697</v>
+        <v>41726</v>
       </c>
       <c r="B405" t="s">
         <v>2</v>
@@ -3641,7 +3609,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A406" s="2">
-        <v>41696</v>
+        <v>41725</v>
       </c>
       <c r="B406" t="s">
         <v>2</v>
@@ -3649,7 +3617,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A407" s="2">
-        <v>41695</v>
+        <v>41724</v>
       </c>
       <c r="B407" t="s">
         <v>2</v>
@@ -3657,7 +3625,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A408" s="2">
-        <v>41694</v>
+        <v>41723</v>
       </c>
       <c r="B408" t="s">
         <v>2</v>
@@ -3665,7 +3633,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A409" s="2">
-        <v>41693</v>
+        <v>41722</v>
       </c>
       <c r="B409" t="s">
         <v>2</v>
@@ -3673,7 +3641,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A410" s="2">
-        <v>41692</v>
+        <v>41721</v>
       </c>
       <c r="B410" t="s">
         <v>2</v>
@@ -3681,7 +3649,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A411" s="2">
-        <v>41691</v>
+        <v>41720</v>
       </c>
       <c r="B411" t="s">
         <v>2</v>
@@ -3689,7 +3657,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A412" s="2">
-        <v>41690</v>
+        <v>41719</v>
       </c>
       <c r="B412" t="s">
         <v>2</v>
@@ -3697,7 +3665,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A413" s="2">
-        <v>41689</v>
+        <v>41718</v>
       </c>
       <c r="B413" t="s">
         <v>2</v>
@@ -3705,7 +3673,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A414" s="2">
-        <v>41688</v>
+        <v>41717</v>
       </c>
       <c r="B414" t="s">
         <v>2</v>
@@ -3713,7 +3681,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A415" s="2">
-        <v>41687</v>
+        <v>41716</v>
       </c>
       <c r="B415" t="s">
         <v>2</v>
@@ -3721,7 +3689,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A416" s="2">
-        <v>41686</v>
+        <v>41715</v>
       </c>
       <c r="B416" t="s">
         <v>2</v>
@@ -3729,7 +3697,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A417" s="2">
-        <v>41685</v>
+        <v>41714</v>
       </c>
       <c r="B417" t="s">
         <v>2</v>
@@ -3737,7 +3705,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A418" s="2">
-        <v>41684</v>
+        <v>41713</v>
       </c>
       <c r="B418" t="s">
         <v>2</v>
@@ -3745,7 +3713,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A419" s="2">
-        <v>41683</v>
+        <v>41712</v>
       </c>
       <c r="B419" t="s">
         <v>2</v>
@@ -3753,7 +3721,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A420" s="2">
-        <v>41682</v>
+        <v>41711</v>
       </c>
       <c r="B420" t="s">
         <v>2</v>
@@ -3761,7 +3729,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A421" s="2">
-        <v>41681</v>
+        <v>41710</v>
       </c>
       <c r="B421" t="s">
         <v>2</v>
@@ -3769,7 +3737,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A422" s="2">
-        <v>41680</v>
+        <v>41709</v>
       </c>
       <c r="B422" t="s">
         <v>2</v>
@@ -3777,7 +3745,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A423" s="2">
-        <v>41679</v>
+        <v>41708</v>
       </c>
       <c r="B423" t="s">
         <v>2</v>
@@ -3785,7 +3753,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A424" s="2">
-        <v>41678</v>
+        <v>41707</v>
       </c>
       <c r="B424" t="s">
         <v>2</v>
@@ -3793,7 +3761,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A425" s="2">
-        <v>41677</v>
+        <v>41706</v>
       </c>
       <c r="B425" t="s">
         <v>2</v>
@@ -3801,7 +3769,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A426" s="2">
-        <v>41676</v>
+        <v>41705</v>
       </c>
       <c r="B426" t="s">
         <v>2</v>
@@ -3809,7 +3777,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A427" s="2">
-        <v>41675</v>
+        <v>41704</v>
       </c>
       <c r="B427" t="s">
         <v>2</v>
@@ -3817,7 +3785,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A428" s="2">
-        <v>41674</v>
+        <v>41703</v>
       </c>
       <c r="B428" t="s">
         <v>2</v>
@@ -3825,7 +3793,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A429" s="2">
-        <v>41673</v>
+        <v>41702</v>
       </c>
       <c r="B429" t="s">
         <v>2</v>
@@ -3833,7 +3801,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A430" s="2">
-        <v>41672</v>
+        <v>41701</v>
       </c>
       <c r="B430" t="s">
         <v>2</v>
@@ -3841,7 +3809,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A431" s="2">
-        <v>41671</v>
+        <v>41700</v>
       </c>
       <c r="B431" t="s">
         <v>2</v>
@@ -3849,7 +3817,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A432" s="2">
-        <v>41670</v>
+        <v>41699</v>
       </c>
       <c r="B432" t="s">
         <v>2</v>
@@ -3857,7 +3825,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A433" s="2">
-        <v>41669</v>
+        <v>41698</v>
       </c>
       <c r="B433" t="s">
         <v>2</v>
@@ -3865,7 +3833,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A434" s="2">
-        <v>41668</v>
+        <v>41697</v>
       </c>
       <c r="B434" t="s">
         <v>2</v>
@@ -3873,7 +3841,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A435" s="2">
-        <v>41667</v>
+        <v>41696</v>
       </c>
       <c r="B435" t="s">
         <v>2</v>
@@ -3881,7 +3849,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A436" s="2">
-        <v>41666</v>
+        <v>41695</v>
       </c>
       <c r="B436" t="s">
         <v>2</v>
@@ -3889,7 +3857,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A437" s="2">
-        <v>41665</v>
+        <v>41694</v>
       </c>
       <c r="B437" t="s">
         <v>2</v>
@@ -3897,7 +3865,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A438" s="2">
-        <v>41664</v>
+        <v>41693</v>
       </c>
       <c r="B438" t="s">
         <v>2</v>
@@ -3905,7 +3873,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A439" s="2">
-        <v>41663</v>
+        <v>41692</v>
       </c>
       <c r="B439" t="s">
         <v>2</v>
@@ -3913,7 +3881,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A440" s="2">
-        <v>41662</v>
+        <v>41691</v>
       </c>
       <c r="B440" t="s">
         <v>2</v>
@@ -3921,7 +3889,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A441" s="2">
-        <v>41661</v>
+        <v>41690</v>
       </c>
       <c r="B441" t="s">
         <v>2</v>
@@ -3929,7 +3897,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A442" s="2">
-        <v>41660</v>
+        <v>41689</v>
       </c>
       <c r="B442" t="s">
         <v>2</v>
@@ -3937,7 +3905,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A443" s="2">
-        <v>41659</v>
+        <v>41688</v>
       </c>
       <c r="B443" t="s">
         <v>2</v>
@@ -3945,7 +3913,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A444" s="2">
-        <v>41658</v>
+        <v>41687</v>
       </c>
       <c r="B444" t="s">
         <v>2</v>
@@ -3953,7 +3921,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A445" s="2">
-        <v>41657</v>
+        <v>41686</v>
       </c>
       <c r="B445" t="s">
         <v>2</v>
@@ -3961,7 +3929,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A446" s="2">
-        <v>41656</v>
+        <v>41685</v>
       </c>
       <c r="B446" t="s">
         <v>2</v>
@@ -3969,7 +3937,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A447" s="2">
-        <v>41655</v>
+        <v>41684</v>
       </c>
       <c r="B447" t="s">
         <v>2</v>
@@ -3977,7 +3945,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A448" s="2">
-        <v>41654</v>
+        <v>41683</v>
       </c>
       <c r="B448" t="s">
         <v>2</v>
@@ -3985,7 +3953,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A449" s="2">
-        <v>41653</v>
+        <v>41682</v>
       </c>
       <c r="B449" t="s">
         <v>2</v>
@@ -3993,7 +3961,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A450" s="2">
-        <v>41652</v>
+        <v>41681</v>
       </c>
       <c r="B450" t="s">
         <v>2</v>
@@ -4001,7 +3969,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A451" s="2">
-        <v>41651</v>
+        <v>41680</v>
       </c>
       <c r="B451" t="s">
         <v>2</v>
@@ -4009,7 +3977,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A452" s="2">
-        <v>41650</v>
+        <v>41679</v>
       </c>
       <c r="B452" t="s">
         <v>2</v>
@@ -4017,7 +3985,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A453" s="2">
-        <v>41649</v>
+        <v>41678</v>
       </c>
       <c r="B453" t="s">
         <v>2</v>
@@ -4025,7 +3993,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A454" s="2">
-        <v>41648</v>
+        <v>41677</v>
       </c>
       <c r="B454" t="s">
         <v>2</v>
@@ -4033,7 +4001,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A455" s="2">
-        <v>41647</v>
+        <v>41676</v>
       </c>
       <c r="B455" t="s">
         <v>2</v>
@@ -4041,7 +4009,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A456" s="2">
-        <v>41646</v>
+        <v>41675</v>
       </c>
       <c r="B456" t="s">
         <v>2</v>
@@ -4049,7 +4017,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A457" s="2">
-        <v>41645</v>
+        <v>41674</v>
       </c>
       <c r="B457" t="s">
         <v>2</v>
@@ -4057,7 +4025,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A458" s="2">
-        <v>41644</v>
+        <v>41673</v>
       </c>
       <c r="B458" t="s">
         <v>2</v>
@@ -4065,7 +4033,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A459" s="2">
-        <v>41643</v>
+        <v>41672</v>
       </c>
       <c r="B459" t="s">
         <v>2</v>
@@ -4073,7 +4041,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A460" s="2">
-        <v>41642</v>
+        <v>41671</v>
       </c>
       <c r="B460" t="s">
         <v>2</v>
@@ -4081,7 +4049,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A461" s="2">
-        <v>41641</v>
+        <v>41670</v>
       </c>
       <c r="B461" t="s">
         <v>2</v>
@@ -4089,9 +4057,241 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A462" s="2">
+        <v>41669</v>
+      </c>
+      <c r="B462" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A463" s="2">
+        <v>41668</v>
+      </c>
+      <c r="B463" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A464" s="2">
+        <v>41667</v>
+      </c>
+      <c r="B464" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A465" s="2">
+        <v>41666</v>
+      </c>
+      <c r="B465" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A466" s="2">
+        <v>41665</v>
+      </c>
+      <c r="B466" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A467" s="2">
+        <v>41664</v>
+      </c>
+      <c r="B467" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A468" s="2">
+        <v>41663</v>
+      </c>
+      <c r="B468" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A469" s="2">
+        <v>41662</v>
+      </c>
+      <c r="B469" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A470" s="2">
+        <v>41661</v>
+      </c>
+      <c r="B470" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A471" s="2">
+        <v>41660</v>
+      </c>
+      <c r="B471" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A472" s="2">
+        <v>41659</v>
+      </c>
+      <c r="B472" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A473" s="2">
+        <v>41658</v>
+      </c>
+      <c r="B473" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A474" s="2">
+        <v>41657</v>
+      </c>
+      <c r="B474" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A475" s="2">
+        <v>41656</v>
+      </c>
+      <c r="B475" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A476" s="2">
+        <v>41655</v>
+      </c>
+      <c r="B476" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A477" s="2">
+        <v>41654</v>
+      </c>
+      <c r="B477" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A478" s="2">
+        <v>41653</v>
+      </c>
+      <c r="B478" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A479" s="2">
+        <v>41652</v>
+      </c>
+      <c r="B479" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A480" s="2">
+        <v>41651</v>
+      </c>
+      <c r="B480" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A481" s="2">
+        <v>41650</v>
+      </c>
+      <c r="B481" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A482" s="2">
+        <v>41649</v>
+      </c>
+      <c r="B482" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A483" s="2">
+        <v>41648</v>
+      </c>
+      <c r="B483" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A484" s="2">
+        <v>41647</v>
+      </c>
+      <c r="B484" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A485" s="2">
+        <v>41646</v>
+      </c>
+      <c r="B485" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A486" s="2">
+        <v>41645</v>
+      </c>
+      <c r="B486" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A487" s="2">
+        <v>41644</v>
+      </c>
+      <c r="B487" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A488" s="2">
+        <v>41643</v>
+      </c>
+      <c r="B488" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A489" s="2">
+        <v>41642</v>
+      </c>
+      <c r="B489" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A490" s="2">
+        <v>41641</v>
+      </c>
+      <c r="B490" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A491" s="2">
         <v>41640</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B491" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Task/2014-04-10大家电销售进RA/2015-04-01_大家电_历史销售_进RA.xlsx
+++ b/Task/2014-04-10大家电销售进RA/2015-04-01_大家电_历史销售_进RA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,14 @@
   </si>
   <si>
     <t>第二次导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -410,7 +418,10 @@
   <dimension ref="A1:D491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D6"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D158" sqref="D127:D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -491,3808 +502,6718 @@
       <c r="A7" s="1">
         <v>42124</v>
       </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>42123</v>
       </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>42122</v>
       </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>42121</v>
       </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>42120</v>
       </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>42119</v>
       </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>42118</v>
       </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>42117</v>
       </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>42116</v>
       </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>42115</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>42114</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>42113</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>42112</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>42111</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>42110</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>42109</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>42108</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>42107</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>42106</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>42105</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>42104</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>42103</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>42102</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>42101</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>42100</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>42099</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>42098</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>42097</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>42096</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>42095</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>42094</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>42093</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>42092</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>42091</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>42090</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>42089</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42088</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42087</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>42086</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>42085</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>42084</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>42083</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>42082</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>42081</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>42080</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>42079</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>42078</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>42077</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>42076</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>42075</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>42074</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>42073</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>42072</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>42071</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>42070</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>42069</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>42068</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>42067</v>
       </c>
       <c r="B64" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>42066</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>42065</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>42064</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>42063</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>42062</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>42061</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>42060</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>42059</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>42058</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>42057</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>42056</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>42055</v>
       </c>
       <c r="B76" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>42054</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>42053</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>42052</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>42051</v>
       </c>
       <c r="B80" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>42050</v>
       </c>
       <c r="B81" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>42049</v>
       </c>
       <c r="B82" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>42048</v>
       </c>
       <c r="B83" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>42047</v>
       </c>
       <c r="B84" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>42046</v>
       </c>
       <c r="B85" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>42045</v>
       </c>
       <c r="B86" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>42044</v>
       </c>
       <c r="B87" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>42043</v>
       </c>
       <c r="B88" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>42042</v>
       </c>
       <c r="B89" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>42041</v>
       </c>
       <c r="B90" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>42040</v>
       </c>
       <c r="B91" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>42039</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>42038</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>42037</v>
       </c>
       <c r="B94" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>42036</v>
       </c>
       <c r="B95" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>42035</v>
       </c>
       <c r="B96" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>42034</v>
       </c>
       <c r="B97" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>42033</v>
       </c>
       <c r="B98" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>42032</v>
       </c>
       <c r="B99" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>42031</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>42030</v>
       </c>
       <c r="B101" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>42029</v>
       </c>
       <c r="B102" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>42028</v>
       </c>
       <c r="B103" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>42027</v>
       </c>
       <c r="B104" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>42026</v>
       </c>
       <c r="B105" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>42025</v>
       </c>
       <c r="B106" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>42024</v>
       </c>
       <c r="B107" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>42023</v>
       </c>
       <c r="B108" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>42022</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>42021</v>
       </c>
       <c r="B110" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>42020</v>
       </c>
       <c r="B111" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>42019</v>
       </c>
       <c r="B112" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>42018</v>
       </c>
       <c r="B113" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>42017</v>
       </c>
       <c r="B114" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>42016</v>
       </c>
       <c r="B115" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>42015</v>
       </c>
       <c r="B116" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>42014</v>
       </c>
       <c r="B117" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>42013</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>42012</v>
       </c>
       <c r="B119" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>42011</v>
       </c>
       <c r="B120" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>42010</v>
       </c>
       <c r="B121" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>42009</v>
       </c>
       <c r="B122" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>42008</v>
       </c>
       <c r="B123" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>42007</v>
       </c>
       <c r="B124" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>42006</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>42005</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>42004</v>
       </c>
       <c r="B127" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>42003</v>
       </c>
       <c r="B128" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>42002</v>
       </c>
       <c r="B129" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>42001</v>
       </c>
       <c r="B130" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>42000</v>
       </c>
       <c r="B131" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>41999</v>
       </c>
       <c r="B132" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>41998</v>
       </c>
       <c r="B133" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>41997</v>
       </c>
       <c r="B134" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>41996</v>
       </c>
       <c r="B135" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>41995</v>
       </c>
       <c r="B136" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>41994</v>
       </c>
       <c r="B137" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>41993</v>
       </c>
       <c r="B138" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>41992</v>
       </c>
       <c r="B139" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>41991</v>
       </c>
       <c r="B140" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>41990</v>
       </c>
       <c r="B141" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>41989</v>
       </c>
       <c r="B142" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>41988</v>
       </c>
       <c r="B143" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>41987</v>
       </c>
       <c r="B144" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>41986</v>
       </c>
       <c r="B145" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>41985</v>
       </c>
       <c r="B146" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>41984</v>
       </c>
       <c r="B147" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>41983</v>
       </c>
       <c r="B148" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>41982</v>
       </c>
       <c r="B149" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>41981</v>
       </c>
       <c r="B150" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>41980</v>
       </c>
       <c r="B151" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>41979</v>
       </c>
       <c r="B152" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>41978</v>
       </c>
       <c r="B153" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>41977</v>
       </c>
       <c r="B154" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>41976</v>
       </c>
       <c r="B155" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>41975</v>
       </c>
       <c r="B156" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>41974</v>
       </c>
       <c r="B157" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>41973</v>
       </c>
       <c r="B158" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>41972</v>
       </c>
       <c r="B159" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
         <v>41971</v>
       </c>
       <c r="B160" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
         <v>41970</v>
       </c>
       <c r="B161" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
         <v>41969</v>
       </c>
       <c r="B162" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
         <v>41968</v>
       </c>
       <c r="B163" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
         <v>41967</v>
       </c>
       <c r="B164" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
         <v>41966</v>
       </c>
       <c r="B165" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
         <v>41965</v>
       </c>
       <c r="B166" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
         <v>41964</v>
       </c>
       <c r="B167" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
         <v>41963</v>
       </c>
       <c r="B168" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
         <v>41962</v>
       </c>
       <c r="B169" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
         <v>41961</v>
       </c>
       <c r="B170" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
         <v>41960</v>
       </c>
       <c r="B171" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
         <v>41959</v>
       </c>
       <c r="B172" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
         <v>41958</v>
       </c>
       <c r="B173" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
         <v>41957</v>
       </c>
       <c r="B174" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
         <v>41956</v>
       </c>
       <c r="B175" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
         <v>41955</v>
       </c>
       <c r="B176" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
         <v>41954</v>
       </c>
       <c r="B177" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
         <v>41953</v>
       </c>
       <c r="B178" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
         <v>41952</v>
       </c>
       <c r="B179" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C179" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
         <v>41951</v>
       </c>
       <c r="B180" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
         <v>41950</v>
       </c>
       <c r="B181" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
         <v>41949</v>
       </c>
       <c r="B182" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="2">
         <v>41948</v>
       </c>
       <c r="B183" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
         <v>41947</v>
       </c>
       <c r="B184" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="2">
         <v>41946</v>
       </c>
       <c r="B185" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
         <v>41945</v>
       </c>
       <c r="B186" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
         <v>41944</v>
       </c>
       <c r="B187" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="2">
         <v>41943</v>
       </c>
       <c r="B188" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
         <v>41942</v>
       </c>
       <c r="B189" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="2">
         <v>41941</v>
       </c>
       <c r="B190" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C190" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="2">
         <v>41940</v>
       </c>
       <c r="B191" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="2">
         <v>41939</v>
       </c>
       <c r="B192" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
         <v>41938</v>
       </c>
       <c r="B193" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="2">
         <v>41937</v>
       </c>
       <c r="B194" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="2">
         <v>41936</v>
       </c>
       <c r="B195" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="2">
         <v>41935</v>
       </c>
       <c r="B196" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="2">
         <v>41934</v>
       </c>
       <c r="B197" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="2">
         <v>41933</v>
       </c>
       <c r="B198" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="2">
         <v>41932</v>
       </c>
       <c r="B199" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="2">
         <v>41931</v>
       </c>
       <c r="B200" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C200" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="2">
         <v>41930</v>
       </c>
       <c r="B201" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C201" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="2">
         <v>41929</v>
       </c>
       <c r="B202" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="2">
         <v>41928</v>
       </c>
       <c r="B203" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="2">
         <v>41927</v>
       </c>
       <c r="B204" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="2">
         <v>41926</v>
       </c>
       <c r="B205" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="2">
         <v>41925</v>
       </c>
       <c r="B206" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="2">
         <v>41924</v>
       </c>
       <c r="B207" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="2">
         <v>41923</v>
       </c>
       <c r="B208" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="2">
         <v>41922</v>
       </c>
       <c r="B209" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="2">
         <v>41921</v>
       </c>
       <c r="B210" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="2">
         <v>41920</v>
       </c>
       <c r="B211" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="2">
         <v>41919</v>
       </c>
       <c r="B212" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="2">
         <v>41918</v>
       </c>
       <c r="B213" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="2">
         <v>41917</v>
       </c>
       <c r="B214" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="2">
         <v>41916</v>
       </c>
       <c r="B215" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="2">
         <v>41915</v>
       </c>
       <c r="B216" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="2">
         <v>41914</v>
       </c>
       <c r="B217" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="2">
         <v>41913</v>
       </c>
       <c r="B218" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="2">
         <v>41912</v>
       </c>
       <c r="B219" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" s="2">
         <v>41911</v>
       </c>
       <c r="B220" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" s="2">
         <v>41910</v>
       </c>
       <c r="B221" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C221" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" s="2">
         <v>41909</v>
       </c>
       <c r="B222" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C222" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="2">
         <v>41908</v>
       </c>
       <c r="B223" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="2">
         <v>41907</v>
       </c>
       <c r="B224" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" s="2">
         <v>41906</v>
       </c>
       <c r="B225" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" s="2">
         <v>41905</v>
       </c>
       <c r="B226" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" s="2">
         <v>41904</v>
       </c>
       <c r="B227" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C227" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" s="2">
         <v>41903</v>
       </c>
       <c r="B228" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" s="2">
         <v>41902</v>
       </c>
       <c r="B229" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" s="2">
         <v>41901</v>
       </c>
       <c r="B230" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" s="2">
         <v>41900</v>
       </c>
       <c r="B231" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" s="2">
         <v>41899</v>
       </c>
       <c r="B232" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" s="2">
         <v>41898</v>
       </c>
       <c r="B233" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" s="2">
         <v>41897</v>
       </c>
       <c r="B234" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" s="2">
         <v>41896</v>
       </c>
       <c r="B235" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C235" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" s="2">
         <v>41895</v>
       </c>
       <c r="B236" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C236" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" s="2">
         <v>41894</v>
       </c>
       <c r="B237" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" s="2">
         <v>41893</v>
       </c>
       <c r="B238" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" s="2">
         <v>41892</v>
       </c>
       <c r="B239" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C239" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" s="2">
         <v>41891</v>
       </c>
       <c r="B240" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C240" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="2">
         <v>41890</v>
       </c>
       <c r="B241" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="2">
         <v>41889</v>
       </c>
       <c r="B242" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="2">
         <v>41888</v>
       </c>
       <c r="B243" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="2">
         <v>41887</v>
       </c>
       <c r="B244" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="2">
         <v>41886</v>
       </c>
       <c r="B245" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="2">
         <v>41885</v>
       </c>
       <c r="B246" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="2">
         <v>41884</v>
       </c>
       <c r="B247" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="2">
         <v>41883</v>
       </c>
       <c r="B248" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C248" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" s="2">
         <v>41882</v>
       </c>
       <c r="B249" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" s="2">
         <v>41881</v>
       </c>
       <c r="B250" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" s="2">
         <v>41880</v>
       </c>
       <c r="B251" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" s="2">
         <v>41879</v>
       </c>
       <c r="B252" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" s="2">
         <v>41878</v>
       </c>
       <c r="B253" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="2">
         <v>41877</v>
       </c>
       <c r="B254" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C254" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="2">
         <v>41876</v>
       </c>
       <c r="B255" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" s="2">
         <v>41875</v>
       </c>
       <c r="B256" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="2">
         <v>41874</v>
       </c>
       <c r="B257" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" s="2">
         <v>41873</v>
       </c>
       <c r="B258" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" s="2">
         <v>41872</v>
       </c>
       <c r="B259" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" s="2">
         <v>41871</v>
       </c>
       <c r="B260" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" s="2">
         <v>41870</v>
       </c>
       <c r="B261" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" s="2">
         <v>41869</v>
       </c>
       <c r="B262" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" s="2">
         <v>41868</v>
       </c>
       <c r="B263" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" s="2">
         <v>41867</v>
       </c>
       <c r="B264" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" s="2">
         <v>41866</v>
       </c>
       <c r="B265" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" s="2">
         <v>41865</v>
       </c>
       <c r="B266" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" s="2">
         <v>41864</v>
       </c>
       <c r="B267" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C267" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" s="2">
         <v>41863</v>
       </c>
       <c r="B268" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" s="2">
         <v>41862</v>
       </c>
       <c r="B269" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" s="2">
         <v>41861</v>
       </c>
       <c r="B270" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" s="2">
         <v>41860</v>
       </c>
       <c r="B271" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C271" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" s="2">
         <v>41859</v>
       </c>
       <c r="B272" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C272" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" s="2">
         <v>41858</v>
       </c>
       <c r="B273" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C273" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" s="2">
         <v>41857</v>
       </c>
       <c r="B274" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C274" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" s="2">
         <v>41856</v>
       </c>
       <c r="B275" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C275" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" s="2">
         <v>41855</v>
       </c>
       <c r="B276" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" s="2">
         <v>41854</v>
       </c>
       <c r="B277" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" s="2">
         <v>41853</v>
       </c>
       <c r="B278" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" s="2">
         <v>41852</v>
       </c>
       <c r="B279" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C279" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" s="2">
         <v>41851</v>
       </c>
       <c r="B280" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C280" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" s="2">
         <v>41850</v>
       </c>
       <c r="B281" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" s="2">
         <v>41849</v>
       </c>
       <c r="B282" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C282" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" s="2">
         <v>41848</v>
       </c>
       <c r="B283" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" s="2">
         <v>41847</v>
       </c>
       <c r="B284" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" s="2">
         <v>41846</v>
       </c>
       <c r="B285" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C285" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" s="2">
         <v>41845</v>
       </c>
       <c r="B286" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" s="2">
         <v>41844</v>
       </c>
       <c r="B287" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C287" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" s="2">
         <v>41843</v>
       </c>
       <c r="B288" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" s="2">
         <v>41842</v>
       </c>
       <c r="B289" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" s="2">
         <v>41841</v>
       </c>
       <c r="B290" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" s="2">
         <v>41840</v>
       </c>
       <c r="B291" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C291" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" s="2">
         <v>41839</v>
       </c>
       <c r="B292" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" s="2">
         <v>41838</v>
       </c>
       <c r="B293" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C293" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" s="2">
         <v>41837</v>
       </c>
       <c r="B294" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" s="2">
         <v>41836</v>
       </c>
       <c r="B295" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" s="2">
         <v>41835</v>
       </c>
       <c r="B296" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" s="2">
         <v>41834</v>
       </c>
       <c r="B297" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" s="2">
         <v>41833</v>
       </c>
       <c r="B298" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" s="2">
         <v>41832</v>
       </c>
       <c r="B299" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C299" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" s="2">
         <v>41831</v>
       </c>
       <c r="B300" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" s="2">
         <v>41830</v>
       </c>
       <c r="B301" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" s="2">
         <v>41829</v>
       </c>
       <c r="B302" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" s="2">
         <v>41828</v>
       </c>
       <c r="B303" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" s="2">
         <v>41827</v>
       </c>
       <c r="B304" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" s="2">
         <v>41826</v>
       </c>
       <c r="B305" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" s="2">
         <v>41825</v>
       </c>
       <c r="B306" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" s="2">
         <v>41824</v>
       </c>
       <c r="B307" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" s="2">
         <v>41823</v>
       </c>
       <c r="B308" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309" s="2">
         <v>41822</v>
       </c>
       <c r="B309" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C309" t="s">
+        <v>6</v>
+      </c>
+      <c r="D309" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310" s="2">
         <v>41821</v>
       </c>
       <c r="B310" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C310" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" s="2">
         <v>41820</v>
       </c>
       <c r="B311" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C311" t="s">
+        <v>9</v>
+      </c>
+      <c r="D311" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" s="2">
         <v>41819</v>
       </c>
       <c r="B312" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C312" t="s">
+        <v>9</v>
+      </c>
+      <c r="D312" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" s="2">
         <v>41818</v>
       </c>
       <c r="B313" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C313" t="s">
+        <v>9</v>
+      </c>
+      <c r="D313" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314" s="2">
         <v>41817</v>
       </c>
       <c r="B314" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C314" t="s">
+        <v>9</v>
+      </c>
+      <c r="D314" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315" s="2">
         <v>41816</v>
       </c>
       <c r="B315" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C315" t="s">
+        <v>9</v>
+      </c>
+      <c r="D315" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" s="2">
         <v>41815</v>
       </c>
       <c r="B316" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C316" t="s">
+        <v>9</v>
+      </c>
+      <c r="D316" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" s="2">
         <v>41814</v>
       </c>
       <c r="B317" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C317" t="s">
+        <v>9</v>
+      </c>
+      <c r="D317" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" s="2">
         <v>41813</v>
       </c>
       <c r="B318" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C318" t="s">
+        <v>9</v>
+      </c>
+      <c r="D318" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" s="2">
         <v>41812</v>
       </c>
       <c r="B319" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C319" t="s">
+        <v>9</v>
+      </c>
+      <c r="D319" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" s="2">
         <v>41811</v>
       </c>
       <c r="B320" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C320" t="s">
+        <v>9</v>
+      </c>
+      <c r="D320" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" s="2">
         <v>41810</v>
       </c>
       <c r="B321" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C321" t="s">
+        <v>9</v>
+      </c>
+      <c r="D321" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" s="2">
         <v>41809</v>
       </c>
       <c r="B322" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C322" t="s">
+        <v>9</v>
+      </c>
+      <c r="D322" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" s="2">
         <v>41808</v>
       </c>
       <c r="B323" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C323" t="s">
+        <v>9</v>
+      </c>
+      <c r="D323" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" s="2">
         <v>41807</v>
       </c>
       <c r="B324" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C324" t="s">
+        <v>9</v>
+      </c>
+      <c r="D324" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" s="2">
         <v>41806</v>
       </c>
       <c r="B325" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C325" t="s">
+        <v>9</v>
+      </c>
+      <c r="D325" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326" s="2">
         <v>41805</v>
       </c>
       <c r="B326" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C326" t="s">
+        <v>9</v>
+      </c>
+      <c r="D326" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327" s="2">
         <v>41804</v>
       </c>
       <c r="B327" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C327" t="s">
+        <v>9</v>
+      </c>
+      <c r="D327" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" s="2">
         <v>41803</v>
       </c>
       <c r="B328" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C328" t="s">
+        <v>9</v>
+      </c>
+      <c r="D328" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" s="2">
         <v>41802</v>
       </c>
       <c r="B329" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C329" t="s">
+        <v>9</v>
+      </c>
+      <c r="D329" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" s="2">
         <v>41801</v>
       </c>
       <c r="B330" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C330" t="s">
+        <v>9</v>
+      </c>
+      <c r="D330" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" s="2">
         <v>41800</v>
       </c>
       <c r="B331" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C331" t="s">
+        <v>9</v>
+      </c>
+      <c r="D331" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" s="2">
         <v>41799</v>
       </c>
       <c r="B332" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C332" t="s">
+        <v>9</v>
+      </c>
+      <c r="D332" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" s="2">
         <v>41798</v>
       </c>
       <c r="B333" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C333" t="s">
+        <v>9</v>
+      </c>
+      <c r="D333" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" s="2">
         <v>41797</v>
       </c>
       <c r="B334" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C334" t="s">
+        <v>9</v>
+      </c>
+      <c r="D334" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335" s="2">
         <v>41796</v>
       </c>
       <c r="B335" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C335" t="s">
+        <v>9</v>
+      </c>
+      <c r="D335" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" s="2">
         <v>41795</v>
       </c>
       <c r="B336" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C336" t="s">
+        <v>9</v>
+      </c>
+      <c r="D336" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" s="2">
         <v>41794</v>
       </c>
       <c r="B337" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C337" t="s">
+        <v>9</v>
+      </c>
+      <c r="D337" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" s="2">
         <v>41793</v>
       </c>
       <c r="B338" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C338" t="s">
+        <v>9</v>
+      </c>
+      <c r="D338" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" s="2">
         <v>41792</v>
       </c>
       <c r="B339" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C339" t="s">
+        <v>9</v>
+      </c>
+      <c r="D339" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340" s="2">
         <v>41791</v>
       </c>
       <c r="B340" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C340" t="s">
+        <v>9</v>
+      </c>
+      <c r="D340" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341" s="2">
         <v>41790</v>
       </c>
       <c r="B341" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C341" t="s">
+        <v>9</v>
+      </c>
+      <c r="D341" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342" s="2">
         <v>41789</v>
       </c>
       <c r="B342" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C342" t="s">
+        <v>9</v>
+      </c>
+      <c r="D342" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343" s="2">
         <v>41788</v>
       </c>
       <c r="B343" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C343" t="s">
+        <v>9</v>
+      </c>
+      <c r="D343" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344" s="2">
         <v>41787</v>
       </c>
       <c r="B344" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C344" t="s">
+        <v>9</v>
+      </c>
+      <c r="D344" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345" s="2">
         <v>41786</v>
       </c>
       <c r="B345" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C345" t="s">
+        <v>9</v>
+      </c>
+      <c r="D345" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346" s="2">
         <v>41785</v>
       </c>
       <c r="B346" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C346" t="s">
+        <v>9</v>
+      </c>
+      <c r="D346" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347" s="2">
         <v>41784</v>
       </c>
       <c r="B347" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C347" t="s">
+        <v>9</v>
+      </c>
+      <c r="D347" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348" s="2">
         <v>41783</v>
       </c>
       <c r="B348" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C348" t="s">
+        <v>9</v>
+      </c>
+      <c r="D348" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349" s="2">
         <v>41782</v>
       </c>
       <c r="B349" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C349" t="s">
+        <v>9</v>
+      </c>
+      <c r="D349" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350" s="2">
         <v>41781</v>
       </c>
       <c r="B350" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C350" t="s">
+        <v>9</v>
+      </c>
+      <c r="D350" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351" s="2">
         <v>41780</v>
       </c>
       <c r="B351" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C351" t="s">
+        <v>9</v>
+      </c>
+      <c r="D351" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352" s="2">
         <v>41779</v>
       </c>
       <c r="B352" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C352" t="s">
+        <v>9</v>
+      </c>
+      <c r="D352" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353" s="2">
         <v>41778</v>
       </c>
       <c r="B353" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C353" t="s">
+        <v>9</v>
+      </c>
+      <c r="D353" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354" s="2">
         <v>41777</v>
       </c>
       <c r="B354" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C354" t="s">
+        <v>9</v>
+      </c>
+      <c r="D354" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355" s="2">
         <v>41776</v>
       </c>
       <c r="B355" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C355" t="s">
+        <v>9</v>
+      </c>
+      <c r="D355" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356" s="2">
         <v>41775</v>
       </c>
       <c r="B356" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C356" t="s">
+        <v>9</v>
+      </c>
+      <c r="D356" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357" s="2">
         <v>41774</v>
       </c>
       <c r="B357" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C357" t="s">
+        <v>9</v>
+      </c>
+      <c r="D357" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A358" s="2">
         <v>41773</v>
       </c>
       <c r="B358" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C358" t="s">
+        <v>9</v>
+      </c>
+      <c r="D358" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359" s="2">
         <v>41772</v>
       </c>
       <c r="B359" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C359" t="s">
+        <v>9</v>
+      </c>
+      <c r="D359" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A360" s="2">
         <v>41771</v>
       </c>
       <c r="B360" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C360" t="s">
+        <v>9</v>
+      </c>
+      <c r="D360" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361" s="2">
         <v>41770</v>
       </c>
       <c r="B361" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C361" t="s">
+        <v>9</v>
+      </c>
+      <c r="D361" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362" s="2">
         <v>41769</v>
       </c>
       <c r="B362" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C362" t="s">
+        <v>9</v>
+      </c>
+      <c r="D362" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A363" s="2">
         <v>41768</v>
       </c>
       <c r="B363" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C363" t="s">
+        <v>9</v>
+      </c>
+      <c r="D363" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364" s="2">
         <v>41767</v>
       </c>
       <c r="B364" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C364" t="s">
+        <v>9</v>
+      </c>
+      <c r="D364" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365" s="2">
         <v>41766</v>
       </c>
       <c r="B365" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C365" t="s">
+        <v>9</v>
+      </c>
+      <c r="D365" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366" s="2">
         <v>41765</v>
       </c>
       <c r="B366" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C366" t="s">
+        <v>9</v>
+      </c>
+      <c r="D366" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A367" s="2">
         <v>41764</v>
       </c>
       <c r="B367" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C367" t="s">
+        <v>9</v>
+      </c>
+      <c r="D367" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A368" s="2">
         <v>41763</v>
       </c>
       <c r="B368" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C368" t="s">
+        <v>9</v>
+      </c>
+      <c r="D368" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A369" s="2">
         <v>41762</v>
       </c>
       <c r="B369" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C369" t="s">
+        <v>9</v>
+      </c>
+      <c r="D369" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A370" s="2">
         <v>41761</v>
       </c>
       <c r="B370" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C370" t="s">
+        <v>9</v>
+      </c>
+      <c r="D370" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A371" s="2">
         <v>41760</v>
       </c>
       <c r="B371" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C371" t="s">
+        <v>9</v>
+      </c>
+      <c r="D371" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A372" s="1">
         <v>41759</v>
       </c>
       <c r="B372" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C372" t="s">
+        <v>9</v>
+      </c>
+      <c r="D372" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A373" s="1">
         <v>41758</v>
       </c>
       <c r="B373" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C373" t="s">
+        <v>9</v>
+      </c>
+      <c r="D373" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A374" s="1">
         <v>41757</v>
       </c>
       <c r="B374" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C374" t="s">
+        <v>9</v>
+      </c>
+      <c r="D374" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A375" s="2">
         <v>41756</v>
       </c>
       <c r="B375" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C375" t="s">
+        <v>9</v>
+      </c>
+      <c r="D375" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A376" s="2">
         <v>41755</v>
       </c>
       <c r="B376" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C376" t="s">
+        <v>9</v>
+      </c>
+      <c r="D376" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A377" s="2">
         <v>41754</v>
       </c>
       <c r="B377" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C377" t="s">
+        <v>9</v>
+      </c>
+      <c r="D377" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A378" s="2">
         <v>41753</v>
       </c>
       <c r="B378" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C378" t="s">
+        <v>9</v>
+      </c>
+      <c r="D378" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A379" s="2">
         <v>41752</v>
       </c>
       <c r="B379" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C379" t="s">
+        <v>9</v>
+      </c>
+      <c r="D379" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A380" s="2">
         <v>41751</v>
       </c>
       <c r="B380" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C380" t="s">
+        <v>9</v>
+      </c>
+      <c r="D380" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A381" s="2">
         <v>41750</v>
       </c>
       <c r="B381" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C381" t="s">
+        <v>9</v>
+      </c>
+      <c r="D381" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A382" s="2">
         <v>41749</v>
       </c>
       <c r="B382" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C382" t="s">
+        <v>9</v>
+      </c>
+      <c r="D382" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A383" s="2">
         <v>41748</v>
       </c>
       <c r="B383" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C383" t="s">
+        <v>9</v>
+      </c>
+      <c r="D383" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A384" s="2">
         <v>41747</v>
       </c>
       <c r="B384" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C384" t="s">
+        <v>9</v>
+      </c>
+      <c r="D384" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A385" s="2">
         <v>41746</v>
       </c>
       <c r="B385" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C385" t="s">
+        <v>9</v>
+      </c>
+      <c r="D385" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A386" s="2">
         <v>41745</v>
       </c>
       <c r="B386" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C386" t="s">
+        <v>9</v>
+      </c>
+      <c r="D386" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A387" s="2">
         <v>41744</v>
       </c>
       <c r="B387" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C387" t="s">
+        <v>9</v>
+      </c>
+      <c r="D387" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A388" s="2">
         <v>41743</v>
       </c>
       <c r="B388" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C388" t="s">
+        <v>9</v>
+      </c>
+      <c r="D388" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A389" s="2">
         <v>41742</v>
       </c>
       <c r="B389" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C389" t="s">
+        <v>9</v>
+      </c>
+      <c r="D389" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A390" s="2">
         <v>41741</v>
       </c>
       <c r="B390" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C390" t="s">
+        <v>9</v>
+      </c>
+      <c r="D390" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A391" s="2">
         <v>41740</v>
       </c>
       <c r="B391" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C391" t="s">
+        <v>9</v>
+      </c>
+      <c r="D391" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A392" s="2">
         <v>41739</v>
       </c>
       <c r="B392" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C392" t="s">
+        <v>9</v>
+      </c>
+      <c r="D392" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A393" s="2">
         <v>41738</v>
       </c>
       <c r="B393" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C393" t="s">
+        <v>9</v>
+      </c>
+      <c r="D393" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A394" s="2">
         <v>41737</v>
       </c>
       <c r="B394" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C394" t="s">
+        <v>9</v>
+      </c>
+      <c r="D394" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A395" s="2">
         <v>41736</v>
       </c>
       <c r="B395" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C395" t="s">
+        <v>9</v>
+      </c>
+      <c r="D395" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A396" s="2">
         <v>41735</v>
       </c>
       <c r="B396" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C396" t="s">
+        <v>9</v>
+      </c>
+      <c r="D396" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A397" s="2">
         <v>41734</v>
       </c>
       <c r="B397" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C397" t="s">
+        <v>9</v>
+      </c>
+      <c r="D397" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A398" s="2">
         <v>41733</v>
       </c>
       <c r="B398" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C398" t="s">
+        <v>9</v>
+      </c>
+      <c r="D398" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A399" s="2">
         <v>41732</v>
       </c>
       <c r="B399" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C399" t="s">
+        <v>9</v>
+      </c>
+      <c r="D399" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A400" s="2">
         <v>41731</v>
       </c>
       <c r="B400" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C400" t="s">
+        <v>9</v>
+      </c>
+      <c r="D400" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A401" s="2">
         <v>41730</v>
       </c>
       <c r="B401" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C401" t="s">
+        <v>9</v>
+      </c>
+      <c r="D401" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A402" s="2">
         <v>41729</v>
       </c>
       <c r="B402" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C402" t="s">
+        <v>9</v>
+      </c>
+      <c r="D402" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A403" s="2">
         <v>41728</v>
       </c>
       <c r="B403" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C403" t="s">
+        <v>9</v>
+      </c>
+      <c r="D403" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A404" s="2">
         <v>41727</v>
       </c>
       <c r="B404" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C404" t="s">
+        <v>9</v>
+      </c>
+      <c r="D404" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A405" s="2">
         <v>41726</v>
       </c>
       <c r="B405" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C405" t="s">
+        <v>9</v>
+      </c>
+      <c r="D405" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A406" s="2">
         <v>41725</v>
       </c>
       <c r="B406" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C406" t="s">
+        <v>9</v>
+      </c>
+      <c r="D406" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A407" s="2">
         <v>41724</v>
       </c>
       <c r="B407" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C407" t="s">
+        <v>9</v>
+      </c>
+      <c r="D407" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A408" s="2">
         <v>41723</v>
       </c>
       <c r="B408" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C408" t="s">
+        <v>9</v>
+      </c>
+      <c r="D408" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A409" s="2">
         <v>41722</v>
       </c>
       <c r="B409" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C409" t="s">
+        <v>9</v>
+      </c>
+      <c r="D409" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A410" s="2">
         <v>41721</v>
       </c>
       <c r="B410" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C410" t="s">
+        <v>9</v>
+      </c>
+      <c r="D410" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A411" s="2">
         <v>41720</v>
       </c>
       <c r="B411" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C411" t="s">
+        <v>9</v>
+      </c>
+      <c r="D411" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A412" s="2">
         <v>41719</v>
       </c>
       <c r="B412" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C412" t="s">
+        <v>9</v>
+      </c>
+      <c r="D412" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A413" s="2">
         <v>41718</v>
       </c>
       <c r="B413" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C413" t="s">
+        <v>9</v>
+      </c>
+      <c r="D413" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A414" s="2">
         <v>41717</v>
       </c>
       <c r="B414" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C414" t="s">
+        <v>9</v>
+      </c>
+      <c r="D414" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A415" s="2">
         <v>41716</v>
       </c>
       <c r="B415" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C415" t="s">
+        <v>9</v>
+      </c>
+      <c r="D415" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A416" s="2">
         <v>41715</v>
       </c>
       <c r="B416" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C416" t="s">
+        <v>9</v>
+      </c>
+      <c r="D416" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A417" s="2">
         <v>41714</v>
       </c>
       <c r="B417" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C417" t="s">
+        <v>9</v>
+      </c>
+      <c r="D417" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A418" s="2">
         <v>41713</v>
       </c>
       <c r="B418" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C418" t="s">
+        <v>9</v>
+      </c>
+      <c r="D418" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A419" s="2">
         <v>41712</v>
       </c>
       <c r="B419" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C419" t="s">
+        <v>9</v>
+      </c>
+      <c r="D419" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A420" s="2">
         <v>41711</v>
       </c>
       <c r="B420" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C420" t="s">
+        <v>9</v>
+      </c>
+      <c r="D420" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A421" s="2">
         <v>41710</v>
       </c>
       <c r="B421" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C421" t="s">
+        <v>9</v>
+      </c>
+      <c r="D421" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A422" s="2">
         <v>41709</v>
       </c>
       <c r="B422" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C422" t="s">
+        <v>9</v>
+      </c>
+      <c r="D422" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A423" s="2">
         <v>41708</v>
       </c>
       <c r="B423" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C423" t="s">
+        <v>9</v>
+      </c>
+      <c r="D423" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A424" s="2">
         <v>41707</v>
       </c>
       <c r="B424" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C424" t="s">
+        <v>9</v>
+      </c>
+      <c r="D424" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A425" s="2">
         <v>41706</v>
       </c>
       <c r="B425" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C425" t="s">
+        <v>9</v>
+      </c>
+      <c r="D425" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A426" s="2">
         <v>41705</v>
       </c>
       <c r="B426" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C426" t="s">
+        <v>9</v>
+      </c>
+      <c r="D426" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A427" s="2">
         <v>41704</v>
       </c>
       <c r="B427" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C427" t="s">
+        <v>9</v>
+      </c>
+      <c r="D427" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A428" s="2">
         <v>41703</v>
       </c>
       <c r="B428" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C428" t="s">
+        <v>9</v>
+      </c>
+      <c r="D428" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A429" s="2">
         <v>41702</v>
       </c>
       <c r="B429" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C429" t="s">
+        <v>9</v>
+      </c>
+      <c r="D429" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A430" s="2">
         <v>41701</v>
       </c>
       <c r="B430" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C430" t="s">
+        <v>9</v>
+      </c>
+      <c r="D430" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A431" s="2">
         <v>41700</v>
       </c>
       <c r="B431" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C431" t="s">
+        <v>9</v>
+      </c>
+      <c r="D431" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A432" s="2">
         <v>41699</v>
       </c>
       <c r="B432" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C432" t="s">
+        <v>9</v>
+      </c>
+      <c r="D432" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A433" s="2">
         <v>41698</v>
       </c>
       <c r="B433" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C433" t="s">
+        <v>9</v>
+      </c>
+      <c r="D433" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A434" s="2">
         <v>41697</v>
       </c>
       <c r="B434" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C434" t="s">
+        <v>9</v>
+      </c>
+      <c r="D434" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A435" s="2">
         <v>41696</v>
       </c>
       <c r="B435" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C435" t="s">
+        <v>9</v>
+      </c>
+      <c r="D435" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A436" s="2">
         <v>41695</v>
       </c>
       <c r="B436" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C436" t="s">
+        <v>9</v>
+      </c>
+      <c r="D436" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A437" s="2">
         <v>41694</v>
       </c>
       <c r="B437" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C437" t="s">
+        <v>9</v>
+      </c>
+      <c r="D437" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A438" s="2">
         <v>41693</v>
       </c>
       <c r="B438" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C438" t="s">
+        <v>9</v>
+      </c>
+      <c r="D438" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A439" s="2">
         <v>41692</v>
       </c>
       <c r="B439" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C439" t="s">
+        <v>9</v>
+      </c>
+      <c r="D439" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A440" s="2">
         <v>41691</v>
       </c>
       <c r="B440" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C440" t="s">
+        <v>9</v>
+      </c>
+      <c r="D440" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A441" s="2">
         <v>41690</v>
       </c>
       <c r="B441" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C441" t="s">
+        <v>9</v>
+      </c>
+      <c r="D441" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A442" s="2">
         <v>41689</v>
       </c>
       <c r="B442" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C442" t="s">
+        <v>9</v>
+      </c>
+      <c r="D442" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A443" s="2">
         <v>41688</v>
       </c>
       <c r="B443" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C443" t="s">
+        <v>9</v>
+      </c>
+      <c r="D443" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A444" s="2">
         <v>41687</v>
       </c>
       <c r="B444" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C444" t="s">
+        <v>9</v>
+      </c>
+      <c r="D444" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A445" s="2">
         <v>41686</v>
       </c>
       <c r="B445" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C445" t="s">
+        <v>9</v>
+      </c>
+      <c r="D445" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A446" s="2">
         <v>41685</v>
       </c>
       <c r="B446" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C446" t="s">
+        <v>9</v>
+      </c>
+      <c r="D446" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A447" s="2">
         <v>41684</v>
       </c>
       <c r="B447" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C447" t="s">
+        <v>9</v>
+      </c>
+      <c r="D447" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A448" s="2">
         <v>41683</v>
       </c>
       <c r="B448" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C448" t="s">
+        <v>9</v>
+      </c>
+      <c r="D448" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A449" s="2">
         <v>41682</v>
       </c>
       <c r="B449" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C449" t="s">
+        <v>9</v>
+      </c>
+      <c r="D449" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A450" s="2">
         <v>41681</v>
       </c>
       <c r="B450" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C450" t="s">
+        <v>9</v>
+      </c>
+      <c r="D450" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A451" s="2">
         <v>41680</v>
       </c>
       <c r="B451" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C451" t="s">
+        <v>9</v>
+      </c>
+      <c r="D451" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A452" s="2">
         <v>41679</v>
       </c>
       <c r="B452" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C452" t="s">
+        <v>9</v>
+      </c>
+      <c r="D452" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A453" s="2">
         <v>41678</v>
       </c>
       <c r="B453" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C453" t="s">
+        <v>9</v>
+      </c>
+      <c r="D453" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A454" s="2">
         <v>41677</v>
       </c>
       <c r="B454" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C454" t="s">
+        <v>9</v>
+      </c>
+      <c r="D454" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A455" s="2">
         <v>41676</v>
       </c>
       <c r="B455" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C455" t="s">
+        <v>9</v>
+      </c>
+      <c r="D455" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A456" s="2">
         <v>41675</v>
       </c>
       <c r="B456" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C456" t="s">
+        <v>9</v>
+      </c>
+      <c r="D456" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A457" s="2">
         <v>41674</v>
       </c>
       <c r="B457" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C457" t="s">
+        <v>9</v>
+      </c>
+      <c r="D457" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A458" s="2">
         <v>41673</v>
       </c>
       <c r="B458" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C458" t="s">
+        <v>9</v>
+      </c>
+      <c r="D458" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A459" s="2">
         <v>41672</v>
       </c>
       <c r="B459" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C459" t="s">
+        <v>9</v>
+      </c>
+      <c r="D459" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A460" s="2">
         <v>41671</v>
       </c>
       <c r="B460" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C460" t="s">
+        <v>9</v>
+      </c>
+      <c r="D460" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A461" s="2">
         <v>41670</v>
       </c>
       <c r="B461" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C461" t="s">
+        <v>9</v>
+      </c>
+      <c r="D461" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A462" s="2">
         <v>41669</v>
       </c>
       <c r="B462" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C462" t="s">
+        <v>9</v>
+      </c>
+      <c r="D462" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A463" s="2">
         <v>41668</v>
       </c>
       <c r="B463" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C463" t="s">
+        <v>9</v>
+      </c>
+      <c r="D463" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A464" s="2">
         <v>41667</v>
       </c>
       <c r="B464" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C464" t="s">
+        <v>9</v>
+      </c>
+      <c r="D464" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A465" s="2">
         <v>41666</v>
       </c>
       <c r="B465" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C465" t="s">
+        <v>9</v>
+      </c>
+      <c r="D465" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A466" s="2">
         <v>41665</v>
       </c>
       <c r="B466" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C466" t="s">
+        <v>9</v>
+      </c>
+      <c r="D466" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A467" s="2">
         <v>41664</v>
       </c>
       <c r="B467" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C467" t="s">
+        <v>9</v>
+      </c>
+      <c r="D467" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A468" s="2">
         <v>41663</v>
       </c>
       <c r="B468" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C468" t="s">
+        <v>9</v>
+      </c>
+      <c r="D468" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A469" s="2">
         <v>41662</v>
       </c>
       <c r="B469" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C469" t="s">
+        <v>9</v>
+      </c>
+      <c r="D469" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A470" s="2">
         <v>41661</v>
       </c>
       <c r="B470" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C470" t="s">
+        <v>9</v>
+      </c>
+      <c r="D470" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A471" s="2">
         <v>41660</v>
       </c>
       <c r="B471" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C471" t="s">
+        <v>9</v>
+      </c>
+      <c r="D471" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A472" s="2">
         <v>41659</v>
       </c>
       <c r="B472" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C472" t="s">
+        <v>9</v>
+      </c>
+      <c r="D472" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A473" s="2">
         <v>41658</v>
       </c>
       <c r="B473" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C473" t="s">
+        <v>9</v>
+      </c>
+      <c r="D473" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A474" s="2">
         <v>41657</v>
       </c>
       <c r="B474" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C474" t="s">
+        <v>9</v>
+      </c>
+      <c r="D474" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A475" s="2">
         <v>41656</v>
       </c>
       <c r="B475" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C475" t="s">
+        <v>9</v>
+      </c>
+      <c r="D475" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A476" s="2">
         <v>41655</v>
       </c>
       <c r="B476" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C476" t="s">
+        <v>9</v>
+      </c>
+      <c r="D476" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A477" s="2">
         <v>41654</v>
       </c>
       <c r="B477" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C477" t="s">
+        <v>9</v>
+      </c>
+      <c r="D477" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A478" s="2">
         <v>41653</v>
       </c>
       <c r="B478" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C478" t="s">
+        <v>9</v>
+      </c>
+      <c r="D478" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A479" s="2">
         <v>41652</v>
       </c>
       <c r="B479" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C479" t="s">
+        <v>9</v>
+      </c>
+      <c r="D479" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A480" s="2">
         <v>41651</v>
       </c>
       <c r="B480" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C480" t="s">
+        <v>9</v>
+      </c>
+      <c r="D480" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A481" s="2">
         <v>41650</v>
       </c>
       <c r="B481" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C481" t="s">
+        <v>9</v>
+      </c>
+      <c r="D481" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A482" s="2">
         <v>41649</v>
       </c>
       <c r="B482" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C482" t="s">
+        <v>9</v>
+      </c>
+      <c r="D482" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A483" s="2">
         <v>41648</v>
       </c>
       <c r="B483" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C483" t="s">
+        <v>9</v>
+      </c>
+      <c r="D483" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A484" s="2">
         <v>41647</v>
       </c>
       <c r="B484" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C484" t="s">
+        <v>9</v>
+      </c>
+      <c r="D484" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A485" s="2">
         <v>41646</v>
       </c>
       <c r="B485" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C485" t="s">
+        <v>9</v>
+      </c>
+      <c r="D485" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A486" s="2">
         <v>41645</v>
       </c>
       <c r="B486" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C486" t="s">
+        <v>9</v>
+      </c>
+      <c r="D486" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A487" s="2">
         <v>41644</v>
       </c>
       <c r="B487" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C487" t="s">
+        <v>9</v>
+      </c>
+      <c r="D487" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A488" s="2">
         <v>41643</v>
       </c>
       <c r="B488" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C488" t="s">
+        <v>9</v>
+      </c>
+      <c r="D488" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A489" s="2">
         <v>41642</v>
       </c>
       <c r="B489" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C489" t="s">
+        <v>9</v>
+      </c>
+      <c r="D489" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A490" s="2">
         <v>41641</v>
       </c>
       <c r="B490" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C490" t="s">
+        <v>9</v>
+      </c>
+      <c r="D490" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A491" s="2">
         <v>41640</v>
       </c>
       <c r="B491" t="s">
         <v>2</v>
+      </c>
+      <c r="C491" t="s">
+        <v>9</v>
+      </c>
+      <c r="D491" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
